--- a/raw_data/20200818_saline/20200818_Sensor0_Test_68.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_68.xlsx
@@ -1,493 +1,909 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BC8605-B99D-41E5-882D-F03BC2D3A06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>60302.944499</v>
+        <v>60302.944498999997</v>
       </c>
       <c r="B2" s="1">
-        <v>16.750818</v>
+        <v>16.750817999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>904.656000</v>
+        <v>904.65599999999995</v>
       </c>
       <c r="D2" s="1">
-        <v>-193.097000</v>
+        <v>-193.09700000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>60313.039977</v>
@@ -496,270 +912,270 @@
         <v>16.753622</v>
       </c>
       <c r="H2" s="1">
-        <v>921.144000</v>
+        <v>921.14400000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-163.045000</v>
+        <v>-163.04499999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>60323.194664</v>
+        <v>60323.194664000002</v>
       </c>
       <c r="L2" s="1">
-        <v>16.756443</v>
+        <v>16.756443000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>942.279000</v>
+        <v>942.279</v>
       </c>
       <c r="N2" s="1">
-        <v>-117.395000</v>
+        <v>-117.395</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>60334.039230</v>
+        <v>60334.039230000002</v>
       </c>
       <c r="Q2" s="1">
-        <v>16.759455</v>
+        <v>16.759454999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>948.540000</v>
+        <v>948.54</v>
       </c>
       <c r="S2" s="1">
-        <v>-102.533000</v>
+        <v>-102.533</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>60344.625840</v>
+        <v>60344.625840000001</v>
       </c>
       <c r="V2" s="1">
-        <v>16.762396</v>
+        <v>16.762395999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>954.851000</v>
+        <v>954.851</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.378800</v>
+        <v>-89.378799999999998</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>60355.410317</v>
+        <v>60355.410317000002</v>
       </c>
       <c r="AA2" s="1">
-        <v>16.765392</v>
+        <v>16.765391999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>962.196000</v>
+        <v>962.19600000000003</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.208100</v>
+        <v>-80.208100000000002</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>60365.966705</v>
+        <v>60365.966704999999</v>
       </c>
       <c r="AF2" s="1">
         <v>16.768324</v>
       </c>
       <c r="AG2" s="1">
-        <v>967.198000</v>
+        <v>967.19799999999998</v>
       </c>
       <c r="AH2" s="1">
-        <v>-80.051800</v>
+        <v>-80.0518</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>60376.393571</v>
+        <v>60376.393571000001</v>
       </c>
       <c r="AK2" s="1">
-        <v>16.771220</v>
+        <v>16.77122</v>
       </c>
       <c r="AL2" s="1">
-        <v>975.275000</v>
+        <v>975.27499999999998</v>
       </c>
       <c r="AM2" s="1">
-        <v>-88.073200</v>
+        <v>-88.0732</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>60386.979189</v>
+        <v>60386.979188999998</v>
       </c>
       <c r="AP2" s="1">
-        <v>16.774161</v>
+        <v>16.774160999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>984.629000</v>
+        <v>984.62900000000002</v>
       </c>
       <c r="AR2" s="1">
-        <v>-103.213000</v>
+        <v>-103.21299999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>60397.964581</v>
       </c>
       <c r="AU2" s="1">
-        <v>16.777212</v>
+        <v>16.777211999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>996.222000</v>
+        <v>996.22199999999998</v>
       </c>
       <c r="AW2" s="1">
-        <v>-124.915000</v>
+        <v>-124.91500000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>60409.451926</v>
+        <v>60409.451926000002</v>
       </c>
       <c r="AZ2" s="1">
         <v>16.780403</v>
       </c>
       <c r="BA2" s="1">
-        <v>1006.000000</v>
+        <v>1006</v>
       </c>
       <c r="BB2" s="1">
-        <v>-143.765000</v>
+        <v>-143.76499999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>60420.053913</v>
+        <v>60420.053913000003</v>
       </c>
       <c r="BE2" s="1">
         <v>16.783348</v>
       </c>
       <c r="BF2" s="1">
-        <v>1052.060000</v>
+        <v>1052.06</v>
       </c>
       <c r="BG2" s="1">
-        <v>-228.741000</v>
+        <v>-228.74100000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>60431.109242</v>
+        <v>60431.109241999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>16.786419</v>
+        <v>16.786418999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1132.550000</v>
+        <v>1132.55</v>
       </c>
       <c r="BL2" s="1">
-        <v>-364.307000</v>
+        <v>-364.30700000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>60442.141260</v>
+        <v>60442.141259999997</v>
       </c>
       <c r="BO2" s="1">
-        <v>16.789484</v>
+        <v>16.789484000000002</v>
       </c>
       <c r="BP2" s="1">
-        <v>1265.000000</v>
+        <v>1265</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-573.075000</v>
+        <v>-573.07500000000005</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>60453.617732</v>
+        <v>60453.617731999999</v>
       </c>
       <c r="BT2" s="1">
         <v>16.792672</v>
       </c>
       <c r="BU2" s="1">
-        <v>1413.490000</v>
+        <v>1413.49</v>
       </c>
       <c r="BV2" s="1">
-        <v>-795.487000</v>
+        <v>-795.48699999999997</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>60464.333758</v>
+        <v>60464.333758000001</v>
       </c>
       <c r="BY2" s="1">
         <v>16.795648</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1575.150000</v>
+        <v>1575.15</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1027.200000</v>
+        <v>-1027.2</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>60474.965009</v>
       </c>
       <c r="CD2" s="1">
-        <v>16.798601</v>
+        <v>16.798601000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1981.660000</v>
+        <v>1981.66</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1568.320000</v>
+        <v>-1568.32</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>60303.348740</v>
+        <v>60303.348740000001</v>
       </c>
       <c r="B3" s="1">
-        <v>16.750930</v>
+        <v>16.75093</v>
       </c>
       <c r="C3" s="1">
-        <v>904.752000</v>
+        <v>904.75199999999995</v>
       </c>
       <c r="D3" s="1">
-        <v>-192.884000</v>
+        <v>-192.88399999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>60313.422517</v>
+        <v>60313.422516999999</v>
       </c>
       <c r="G3" s="1">
-        <v>16.753728</v>
+        <v>16.753727999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>920.901000</v>
+        <v>920.90099999999995</v>
       </c>
       <c r="I3" s="1">
-        <v>-163.385000</v>
+        <v>-163.38499999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>60323.625688</v>
@@ -768,375 +1184,375 @@
         <v>16.756563</v>
       </c>
       <c r="M3" s="1">
-        <v>942.146000</v>
+        <v>942.14599999999996</v>
       </c>
       <c r="N3" s="1">
-        <v>-117.462000</v>
+        <v>-117.462</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>60334.467242</v>
+        <v>60334.467241999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>16.759574</v>
+        <v>16.759574000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>948.539000</v>
+        <v>948.53899999999999</v>
       </c>
       <c r="S3" s="1">
-        <v>-102.567000</v>
+        <v>-102.56699999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>60345.022151</v>
+        <v>60345.022150999997</v>
       </c>
       <c r="V3" s="1">
-        <v>16.762506</v>
+        <v>16.762505999999998</v>
       </c>
       <c r="W3" s="1">
-        <v>954.875000</v>
+        <v>954.875</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.334500</v>
+        <v>-89.334500000000006</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>60355.772429</v>
+        <v>60355.772428999997</v>
       </c>
       <c r="AA3" s="1">
-        <v>16.765492</v>
+        <v>16.765491999999998</v>
       </c>
       <c r="AB3" s="1">
-        <v>962.209000</v>
+        <v>962.20899999999995</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.336000</v>
+        <v>-80.335999999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>60366.333252</v>
+        <v>60366.333251999997</v>
       </c>
       <c r="AF3" s="1">
-        <v>16.768426</v>
+        <v>16.768426000000002</v>
       </c>
       <c r="AG3" s="1">
-        <v>967.198000</v>
+        <v>967.19799999999998</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.059700</v>
+        <v>-80.059700000000007</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>60376.784174</v>
       </c>
       <c r="AK3" s="1">
-        <v>16.771329</v>
+        <v>16.771329000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>975.271000</v>
+        <v>975.27099999999996</v>
       </c>
       <c r="AM3" s="1">
-        <v>-88.054600</v>
+        <v>-88.054599999999994</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>60387.725171</v>
+        <v>60387.725170999998</v>
       </c>
       <c r="AP3" s="1">
-        <v>16.774368</v>
+        <v>16.774367999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>984.625000</v>
+        <v>984.625</v>
       </c>
       <c r="AR3" s="1">
-        <v>-103.185000</v>
+        <v>-103.185</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>60398.725940</v>
+        <v>60398.725939999997</v>
       </c>
       <c r="AU3" s="1">
         <v>16.777424</v>
       </c>
       <c r="AV3" s="1">
-        <v>996.195000</v>
+        <v>996.19500000000005</v>
       </c>
       <c r="AW3" s="1">
-        <v>-124.920000</v>
+        <v>-124.92</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>60409.851206</v>
+        <v>60409.851205999999</v>
       </c>
       <c r="AZ3" s="1">
         <v>16.780514</v>
       </c>
       <c r="BA3" s="1">
-        <v>1006.020000</v>
+        <v>1006.02</v>
       </c>
       <c r="BB3" s="1">
-        <v>-143.753000</v>
+        <v>-143.75299999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>60420.454185</v>
+        <v>60420.454185000002</v>
       </c>
       <c r="BE3" s="1">
-        <v>16.783459</v>
+        <v>16.783459000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1052.090000</v>
+        <v>1052.0899999999999</v>
       </c>
       <c r="BG3" s="1">
-        <v>-228.727000</v>
+        <v>-228.727</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>60431.521417</v>
+        <v>60431.521417000004</v>
       </c>
       <c r="BJ3" s="1">
         <v>16.786534</v>
       </c>
       <c r="BK3" s="1">
-        <v>1132.570000</v>
+        <v>1132.57</v>
       </c>
       <c r="BL3" s="1">
-        <v>-364.342000</v>
+        <v>-364.34199999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>60442.876330</v>
+        <v>60442.876329999999</v>
       </c>
       <c r="BO3" s="1">
-        <v>16.789688</v>
+        <v>16.789688000000002</v>
       </c>
       <c r="BP3" s="1">
-        <v>1264.990000</v>
+        <v>1264.99</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-573.125000</v>
+        <v>-573.125</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>60453.768973</v>
+        <v>60453.768972999998</v>
       </c>
       <c r="BT3" s="1">
         <v>16.792714</v>
       </c>
       <c r="BU3" s="1">
-        <v>1413.500000</v>
+        <v>1413.5</v>
       </c>
       <c r="BV3" s="1">
-        <v>-795.547000</v>
+        <v>-795.54700000000003</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>60464.500942</v>
+        <v>60464.500941999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>16.795695</v>
+        <v>16.795694999999998</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1575.020000</v>
+        <v>1575.02</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1027.290000</v>
+        <v>-1027.29</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>60475.559744</v>
+        <v>60475.559743999998</v>
       </c>
       <c r="CD3" s="1">
-        <v>16.798767</v>
+        <v>16.798767000000002</v>
       </c>
       <c r="CE3" s="1">
-        <v>1983.580000</v>
+        <v>1983.58</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1567.930000</v>
+        <v>-1567.93</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>60303.777314</v>
+        <v>60303.777313999999</v>
       </c>
       <c r="B4" s="1">
-        <v>16.751049</v>
+        <v>16.751048999999998</v>
       </c>
       <c r="C4" s="1">
-        <v>904.751000</v>
+        <v>904.75099999999998</v>
       </c>
       <c r="D4" s="1">
-        <v>-193.068000</v>
+        <v>-193.06800000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>60313.852516</v>
+        <v>60313.852515999999</v>
       </c>
       <c r="G4" s="1">
-        <v>16.753848</v>
+        <v>16.753848000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>921.077000</v>
+        <v>921.077</v>
       </c>
       <c r="I4" s="1">
-        <v>-163.418000</v>
+        <v>-163.41800000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>60323.959495</v>
+        <v>60323.959495000003</v>
       </c>
       <c r="L4" s="1">
-        <v>16.756655</v>
+        <v>16.756654999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>942.193000</v>
+        <v>942.19299999999998</v>
       </c>
       <c r="N4" s="1">
-        <v>-117.444000</v>
+        <v>-117.444</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>60334.813944</v>
+        <v>60334.813944000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>16.759671</v>
+        <v>16.759671000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>948.550000</v>
+        <v>948.55</v>
       </c>
       <c r="S4" s="1">
-        <v>-102.582000</v>
+        <v>-102.58199999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>60345.366828</v>
+        <v>60345.366827999998</v>
       </c>
       <c r="V4" s="1">
-        <v>16.762602</v>
+        <v>16.762602000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>954.909000</v>
+        <v>954.90899999999999</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.307700</v>
+        <v>-89.307699999999997</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>60356.125093</v>
+        <v>60356.125093000002</v>
       </c>
       <c r="AA4" s="1">
-        <v>16.765590</v>
+        <v>16.76559</v>
       </c>
       <c r="AB4" s="1">
-        <v>962.170000</v>
+        <v>962.17</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.305400</v>
+        <v>-80.305400000000006</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>60367.018192</v>
+        <v>60367.018192000003</v>
       </c>
       <c r="AF4" s="1">
-        <v>16.768616</v>
+        <v>16.768616000000002</v>
       </c>
       <c r="AG4" s="1">
-        <v>967.190000</v>
+        <v>967.19</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.041500</v>
+        <v>-80.041499999999999</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>60377.476869</v>
+        <v>60377.476868999998</v>
       </c>
       <c r="AK4" s="1">
         <v>16.771521</v>
       </c>
       <c r="AL4" s="1">
-        <v>975.241000</v>
+        <v>975.24099999999999</v>
       </c>
       <c r="AM4" s="1">
-        <v>-88.063400</v>
+        <v>-88.063400000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>60388.083148</v>
+        <v>60388.083147999998</v>
       </c>
       <c r="AP4" s="1">
-        <v>16.774468</v>
+        <v>16.774467999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>984.633000</v>
+        <v>984.63300000000004</v>
       </c>
       <c r="AR4" s="1">
-        <v>-103.202000</v>
+        <v>-103.202</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>60399.107395</v>
+        <v>60399.107394999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>16.777530</v>
+        <v>16.777529999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>996.174000</v>
+        <v>996.17399999999998</v>
       </c>
       <c r="AW4" s="1">
-        <v>-124.903000</v>
+        <v>-124.90300000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>60410.199429</v>
@@ -1145,1857 +1561,1857 @@
         <v>16.780611</v>
       </c>
       <c r="BA4" s="1">
-        <v>1005.990000</v>
+        <v>1005.99</v>
       </c>
       <c r="BB4" s="1">
-        <v>-143.786000</v>
+        <v>-143.786</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>60421.126786</v>
+        <v>60421.126786000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>16.783646</v>
+        <v>16.783646000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1052.050000</v>
+        <v>1052.05</v>
       </c>
       <c r="BG4" s="1">
-        <v>-228.738000</v>
+        <v>-228.738</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>60431.975256</v>
+        <v>60431.975255999998</v>
       </c>
       <c r="BJ4" s="1">
-        <v>16.786660</v>
+        <v>16.786660000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1132.580000</v>
+        <v>1132.58</v>
       </c>
       <c r="BL4" s="1">
-        <v>-364.359000</v>
+        <v>-364.35899999999998</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>60442.986938</v>
+        <v>60442.986938000002</v>
       </c>
       <c r="BO4" s="1">
-        <v>16.789719</v>
+        <v>16.789719000000002</v>
       </c>
       <c r="BP4" s="1">
-        <v>1264.990000</v>
+        <v>1264.99</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-573.151000</v>
+        <v>-573.15099999999995</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>60454.180155</v>
+        <v>60454.180155000002</v>
       </c>
       <c r="BT4" s="1">
         <v>16.792828</v>
       </c>
       <c r="BU4" s="1">
-        <v>1413.450000</v>
+        <v>1413.45</v>
       </c>
       <c r="BV4" s="1">
-        <v>-795.506000</v>
+        <v>-795.50599999999997</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>60464.912589</v>
       </c>
       <c r="BY4" s="1">
-        <v>16.795809</v>
+        <v>16.795808999999998</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1575.160000</v>
+        <v>1575.16</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1027.230000</v>
+        <v>-1027.23</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>60476.098367</v>
+        <v>60476.098366999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>16.798916</v>
+        <v>16.798915999999998</v>
       </c>
       <c r="CE4" s="1">
-        <v>1981.780000</v>
+        <v>1981.78</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1567.140000</v>
+        <v>-1567.14</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>60304.047142</v>
+        <v>60304.047142000003</v>
       </c>
       <c r="B5" s="1">
-        <v>16.751124</v>
+        <v>16.751124000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>904.644000</v>
+        <v>904.64400000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-193.101000</v>
+        <v>-193.101</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>60314.145156</v>
+        <v>60314.145155999999</v>
       </c>
       <c r="G5" s="1">
-        <v>16.753929</v>
+        <v>16.753928999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>920.995000</v>
+        <v>920.995</v>
       </c>
       <c r="I5" s="1">
-        <v>-163.374000</v>
+        <v>-163.374</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>60324.303224</v>
+        <v>60324.303224000003</v>
       </c>
       <c r="L5" s="1">
-        <v>16.756751</v>
+        <v>16.756751000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>942.142000</v>
+        <v>942.14200000000005</v>
       </c>
       <c r="N5" s="1">
-        <v>-117.439000</v>
+        <v>-117.43899999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>60335.162664</v>
+        <v>60335.162664000003</v>
       </c>
       <c r="Q5" s="1">
         <v>16.759767</v>
       </c>
       <c r="R5" s="1">
-        <v>948.496000</v>
+        <v>948.49599999999998</v>
       </c>
       <c r="S5" s="1">
-        <v>-102.577000</v>
+        <v>-102.577</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>60345.710058</v>
+        <v>60345.710057999997</v>
       </c>
       <c r="V5" s="1">
-        <v>16.762697</v>
+        <v>16.762696999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>954.873000</v>
+        <v>954.87300000000005</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.259900</v>
+        <v>-89.259900000000002</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>60356.819270</v>
+        <v>60356.81927</v>
       </c>
       <c r="AA5" s="1">
-        <v>16.765783</v>
+        <v>16.765782999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>962.165000</v>
+        <v>962.16499999999996</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.292700</v>
+        <v>-80.292699999999996</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>60367.362942</v>
       </c>
       <c r="AF5" s="1">
-        <v>16.768712</v>
+        <v>16.768712000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>967.208000</v>
+        <v>967.20799999999997</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.038400</v>
+        <v>-80.038399999999996</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>60377.828992</v>
+        <v>60377.828992000002</v>
       </c>
       <c r="AK5" s="1">
-        <v>16.771619</v>
+        <v>16.771619000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>975.277000</v>
+        <v>975.27700000000004</v>
       </c>
       <c r="AM5" s="1">
-        <v>-88.050100</v>
+        <v>-88.0501</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>60388.442914</v>
+        <v>60388.442913999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>16.774567</v>
+        <v>16.774567000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>984.601000</v>
+        <v>984.601</v>
       </c>
       <c r="AR5" s="1">
-        <v>-103.195000</v>
+        <v>-103.19499999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>60399.785927</v>
+        <v>60399.785926999997</v>
       </c>
       <c r="AU5" s="1">
         <v>16.777718</v>
       </c>
       <c r="AV5" s="1">
-        <v>996.190000</v>
+        <v>996.19</v>
       </c>
       <c r="AW5" s="1">
-        <v>-124.922000</v>
+        <v>-124.922</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>60410.871974</v>
+        <v>60410.871974000002</v>
       </c>
       <c r="AZ5" s="1">
-        <v>16.780798</v>
+        <v>16.780798000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1006.020000</v>
+        <v>1006.02</v>
       </c>
       <c r="BB5" s="1">
-        <v>-143.775000</v>
+        <v>-143.77500000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>60421.569686</v>
+        <v>60421.569686000003</v>
       </c>
       <c r="BE5" s="1">
-        <v>16.783769</v>
+        <v>16.783768999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1052.060000</v>
+        <v>1052.06</v>
       </c>
       <c r="BG5" s="1">
-        <v>-228.741000</v>
+        <v>-228.74100000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>60432.269384</v>
+        <v>60432.269383999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>16.786741</v>
+        <v>16.786740999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1132.540000</v>
+        <v>1132.54</v>
       </c>
       <c r="BL5" s="1">
-        <v>-364.328000</v>
+        <v>-364.32799999999997</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>60443.398617</v>
+        <v>60443.398616999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>16.789833</v>
+        <v>16.789833000000002</v>
       </c>
       <c r="BP5" s="1">
-        <v>1265.000000</v>
+        <v>1265</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-573.182000</v>
+        <v>-573.18200000000002</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>60454.612207</v>
+        <v>60454.612206999998</v>
       </c>
       <c r="BT5" s="1">
-        <v>16.792948</v>
+        <v>16.792947999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1413.380000</v>
+        <v>1413.38</v>
       </c>
       <c r="BV5" s="1">
-        <v>-795.505000</v>
+        <v>-795.505</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>60465.519693</v>
+        <v>60465.519693000002</v>
       </c>
       <c r="BY5" s="1">
-        <v>16.795978</v>
+        <v>16.795978000000002</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1575.080000</v>
+        <v>1575.08</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1027.220000</v>
+        <v>-1027.22</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>60476.637549</v>
+        <v>60476.637548999999</v>
       </c>
       <c r="CD5" s="1">
         <v>16.799066</v>
       </c>
       <c r="CE5" s="1">
-        <v>1982.930000</v>
+        <v>1982.93</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1568.900000</v>
+        <v>-1568.9</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>60304.384913</v>
+        <v>60304.384913000002</v>
       </c>
       <c r="B6" s="1">
-        <v>16.751218</v>
+        <v>16.751218000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>904.741000</v>
+        <v>904.74099999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-192.987000</v>
+        <v>-192.98699999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>60314.487892</v>
+        <v>60314.487891999997</v>
       </c>
       <c r="G6" s="1">
-        <v>16.754024</v>
+        <v>16.754024000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>921.057000</v>
+        <v>921.05700000000002</v>
       </c>
       <c r="I6" s="1">
-        <v>-163.652000</v>
+        <v>-163.65199999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>60324.648439</v>
+        <v>60324.648438999997</v>
       </c>
       <c r="L6" s="1">
         <v>16.756847</v>
       </c>
       <c r="M6" s="1">
-        <v>942.095000</v>
+        <v>942.09500000000003</v>
       </c>
       <c r="N6" s="1">
-        <v>-117.447000</v>
+        <v>-117.447</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>60335.861495</v>
+        <v>60335.861494999997</v>
       </c>
       <c r="Q6" s="1">
-        <v>16.759962</v>
+        <v>16.759962000000002</v>
       </c>
       <c r="R6" s="1">
-        <v>948.497000</v>
+        <v>948.49699999999996</v>
       </c>
       <c r="S6" s="1">
-        <v>-102.544000</v>
+        <v>-102.544</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>60346.396521</v>
+        <v>60346.396521000002</v>
       </c>
       <c r="V6" s="1">
         <v>16.762888</v>
       </c>
       <c r="W6" s="1">
-        <v>954.929000</v>
+        <v>954.92899999999997</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.420400</v>
+        <v>-89.420400000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>60357.165195</v>
+        <v>60357.165195000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>16.765879</v>
+        <v>16.765879000000002</v>
       </c>
       <c r="AB6" s="1">
-        <v>962.172000</v>
+        <v>962.17200000000003</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.239700</v>
+        <v>-80.239699999999999</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>60367.709613</v>
+        <v>60367.709612999999</v>
       </c>
       <c r="AF6" s="1">
         <v>16.768808</v>
       </c>
       <c r="AG6" s="1">
-        <v>967.199000</v>
+        <v>967.19899999999996</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.099400</v>
+        <v>-80.099400000000003</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>60378.176191</v>
+        <v>60378.176190999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>16.771716</v>
+        <v>16.771716000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>975.302000</v>
+        <v>975.30200000000002</v>
       </c>
       <c r="AM6" s="1">
-        <v>-88.066000</v>
+        <v>-88.066000000000003</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>60389.111491</v>
+        <v>60389.111491000003</v>
       </c>
       <c r="AP6" s="1">
         <v>16.774753</v>
       </c>
       <c r="AQ6" s="1">
-        <v>984.609000</v>
+        <v>984.60900000000004</v>
       </c>
       <c r="AR6" s="1">
-        <v>-103.206000</v>
+        <v>-103.206</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>60400.200082</v>
+        <v>60400.200082000003</v>
       </c>
       <c r="AU6" s="1">
-        <v>16.777833</v>
+        <v>16.777833000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>996.230000</v>
+        <v>996.23</v>
       </c>
       <c r="AW6" s="1">
-        <v>-124.907000</v>
+        <v>-124.907</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>60411.273732</v>
+        <v>60411.273732000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>16.780909</v>
+        <v>16.780909000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1005.980000</v>
+        <v>1005.98</v>
       </c>
       <c r="BB6" s="1">
-        <v>-143.771000</v>
+        <v>-143.77099999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>60421.928821</v>
+        <v>60421.928821000001</v>
       </c>
       <c r="BE6" s="1">
-        <v>16.783869</v>
+        <v>16.783868999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1052.060000</v>
+        <v>1052.06</v>
       </c>
       <c r="BG6" s="1">
-        <v>-228.738000</v>
+        <v>-228.738</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>60432.648825</v>
+        <v>60432.648824999997</v>
       </c>
       <c r="BJ6" s="1">
-        <v>16.786847</v>
+        <v>16.786847000000002</v>
       </c>
       <c r="BK6" s="1">
-        <v>1132.540000</v>
+        <v>1132.54</v>
       </c>
       <c r="BL6" s="1">
-        <v>-364.363000</v>
+        <v>-364.363</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>60443.793944</v>
+        <v>60443.793943999997</v>
       </c>
       <c r="BO6" s="1">
-        <v>16.789943</v>
+        <v>16.789943000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1264.980000</v>
+        <v>1264.98</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-573.158000</v>
+        <v>-573.15800000000002</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>60455.037738</v>
+        <v>60455.037737999999</v>
       </c>
       <c r="BT6" s="1">
         <v>16.793066</v>
       </c>
       <c r="BU6" s="1">
-        <v>1413.530000</v>
+        <v>1413.53</v>
       </c>
       <c r="BV6" s="1">
-        <v>-795.542000</v>
+        <v>-795.54200000000003</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>60465.788524</v>
+        <v>60465.788524000003</v>
       </c>
       <c r="BY6" s="1">
         <v>16.796052</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1575.240000</v>
+        <v>1575.24</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1027.370000</v>
+        <v>-1027.3699999999999</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>60477.177197</v>
+        <v>60477.177196999997</v>
       </c>
       <c r="CD6" s="1">
-        <v>16.799216</v>
+        <v>16.799216000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>1982.920000</v>
+        <v>1982.92</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1566.580000</v>
+        <v>-1566.58</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>60304.727618</v>
+        <v>60304.727617999997</v>
       </c>
       <c r="B7" s="1">
         <v>16.751313</v>
       </c>
       <c r="C7" s="1">
-        <v>904.838000</v>
+        <v>904.83799999999997</v>
       </c>
       <c r="D7" s="1">
-        <v>-193.043000</v>
+        <v>-193.04300000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>60314.822691</v>
+        <v>60314.822691000001</v>
       </c>
       <c r="G7" s="1">
-        <v>16.754117</v>
+        <v>16.754117000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>920.892000</v>
+        <v>920.89200000000005</v>
       </c>
       <c r="I7" s="1">
-        <v>-163.742000</v>
+        <v>-163.74199999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>60325.340396</v>
       </c>
       <c r="L7" s="1">
-        <v>16.757039</v>
+        <v>16.757038999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>942.035000</v>
+        <v>942.03499999999997</v>
       </c>
       <c r="N7" s="1">
-        <v>-117.511000</v>
+        <v>-117.511</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>60336.207740</v>
+        <v>60336.207739999998</v>
       </c>
       <c r="Q7" s="1">
-        <v>16.760058</v>
+        <v>16.760058000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>948.516000</v>
+        <v>948.51599999999996</v>
       </c>
       <c r="S7" s="1">
-        <v>-102.533000</v>
+        <v>-102.533</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>60346.741241</v>
+        <v>60346.741241000003</v>
       </c>
       <c r="V7" s="1">
-        <v>16.762984</v>
+        <v>16.762983999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>954.874000</v>
+        <v>954.87400000000002</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.315800</v>
+        <v>-89.315799999999996</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>60357.518315</v>
+        <v>60357.518315000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>16.765977</v>
+        <v>16.765976999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>962.192000</v>
+        <v>962.19200000000001</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.289500</v>
+        <v>-80.289500000000004</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>60368.359870</v>
+        <v>60368.35987</v>
       </c>
       <c r="AF7" s="1">
-        <v>16.768989</v>
+        <v>16.768989000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>967.195000</v>
+        <v>967.19500000000005</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.027100</v>
+        <v>-80.027100000000004</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>60378.836863</v>
+        <v>60378.836862999997</v>
       </c>
       <c r="AK7" s="1">
-        <v>16.771899</v>
+        <v>16.771899000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>975.274000</v>
+        <v>975.274</v>
       </c>
       <c r="AM7" s="1">
-        <v>-88.078800</v>
+        <v>-88.078800000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>60389.558384</v>
+        <v>60389.558384000004</v>
       </c>
       <c r="AP7" s="1">
         <v>16.774877</v>
       </c>
       <c r="AQ7" s="1">
-        <v>984.644000</v>
+        <v>984.64400000000001</v>
       </c>
       <c r="AR7" s="1">
-        <v>-103.184000</v>
+        <v>-103.184</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>60400.596887</v>
       </c>
       <c r="AU7" s="1">
-        <v>16.777944</v>
+        <v>16.777944000000002</v>
       </c>
       <c r="AV7" s="1">
-        <v>996.184000</v>
+        <v>996.18399999999997</v>
       </c>
       <c r="AW7" s="1">
-        <v>-124.903000</v>
+        <v>-124.90300000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>60411.658131</v>
+        <v>60411.658130999997</v>
       </c>
       <c r="AZ7" s="1">
-        <v>16.781016</v>
+        <v>16.781016000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1006.010000</v>
+        <v>1006.01</v>
       </c>
       <c r="BB7" s="1">
-        <v>-143.778000</v>
+        <v>-143.77799999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>60422.288915</v>
+        <v>60422.288914999997</v>
       </c>
       <c r="BE7" s="1">
-        <v>16.783969</v>
+        <v>16.783968999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1052.070000</v>
+        <v>1052.07</v>
       </c>
       <c r="BG7" s="1">
-        <v>-228.738000</v>
+        <v>-228.738</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>60433.073931</v>
+        <v>60433.073930999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>16.786965</v>
+        <v>16.786964999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1132.540000</v>
+        <v>1132.54</v>
       </c>
       <c r="BL7" s="1">
-        <v>-364.323000</v>
+        <v>-364.32299999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>60444.219993</v>
+        <v>60444.219992999999</v>
       </c>
       <c r="BO7" s="1">
-        <v>16.790061</v>
+        <v>16.790061000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1265.000000</v>
+        <v>1265</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-573.137000</v>
+        <v>-573.13699999999994</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>60455.450426</v>
+        <v>60455.450426000003</v>
       </c>
       <c r="BT7" s="1">
-        <v>16.793181</v>
+        <v>16.793181000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1413.500000</v>
+        <v>1413.5</v>
       </c>
       <c r="BV7" s="1">
-        <v>-795.513000</v>
+        <v>-795.51300000000003</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>60466.211147</v>
+        <v>60466.211147000002</v>
       </c>
       <c r="BY7" s="1">
-        <v>16.796170</v>
+        <v>16.79617</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1575.160000</v>
+        <v>1575.16</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1027.310000</v>
+        <v>-1027.31</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>60477.719292</v>
+        <v>60477.719292000002</v>
       </c>
       <c r="CD7" s="1">
-        <v>16.799366</v>
+        <v>16.799365999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>1981.880000</v>
+        <v>1981.88</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1568.320000</v>
+        <v>-1568.32</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>60305.412130</v>
+        <v>60305.412129999997</v>
       </c>
       <c r="B8" s="1">
         <v>16.751503</v>
       </c>
       <c r="C8" s="1">
-        <v>904.841000</v>
+        <v>904.84100000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-192.937000</v>
+        <v>-192.93700000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>60315.528002</v>
+        <v>60315.528001999999</v>
       </c>
       <c r="G8" s="1">
         <v>16.754313</v>
       </c>
       <c r="H8" s="1">
-        <v>920.795000</v>
+        <v>920.79499999999996</v>
       </c>
       <c r="I8" s="1">
-        <v>-163.310000</v>
+        <v>-163.31</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>60325.684613</v>
+        <v>60325.684612999998</v>
       </c>
       <c r="L8" s="1">
-        <v>16.757135</v>
+        <v>16.757135000000002</v>
       </c>
       <c r="M8" s="1">
-        <v>942.074000</v>
+        <v>942.07399999999996</v>
       </c>
       <c r="N8" s="1">
-        <v>-117.328000</v>
+        <v>-117.328</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>60336.554407</v>
+        <v>60336.554407000003</v>
       </c>
       <c r="Q8" s="1">
         <v>16.760154</v>
       </c>
       <c r="R8" s="1">
-        <v>948.523000</v>
+        <v>948.52300000000002</v>
       </c>
       <c r="S8" s="1">
-        <v>-102.573000</v>
+        <v>-102.57299999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>60347.081496</v>
+        <v>60347.081495999999</v>
       </c>
       <c r="V8" s="1">
         <v>16.763078</v>
       </c>
       <c r="W8" s="1">
-        <v>954.859000</v>
+        <v>954.85900000000004</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.299800</v>
+        <v>-89.299800000000005</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>60358.172538</v>
+        <v>60358.172537999999</v>
       </c>
       <c r="AA8" s="1">
-        <v>16.766159</v>
+        <v>16.766158999999998</v>
       </c>
       <c r="AB8" s="1">
-        <v>962.157000</v>
+        <v>962.15700000000004</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.262600</v>
+        <v>-80.262600000000006</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>60368.727900</v>
+        <v>60368.727899999998</v>
       </c>
       <c r="AF8" s="1">
         <v>16.769091</v>
       </c>
       <c r="AG8" s="1">
-        <v>967.218000</v>
+        <v>967.21799999999996</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.038300</v>
+        <v>-80.038300000000007</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>60379.223246</v>
+        <v>60379.223246000001</v>
       </c>
       <c r="AK8" s="1">
-        <v>16.772006</v>
+        <v>16.772006000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>975.270000</v>
+        <v>975.27</v>
       </c>
       <c r="AM8" s="1">
-        <v>-88.064100</v>
+        <v>-88.064099999999996</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>60389.921493</v>
+        <v>60389.921493000002</v>
       </c>
       <c r="AP8" s="1">
-        <v>16.774978</v>
+        <v>16.774978000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>984.610000</v>
+        <v>984.61</v>
       </c>
       <c r="AR8" s="1">
-        <v>-103.173000</v>
+        <v>-103.173</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>60400.957474</v>
+        <v>60400.957474000003</v>
       </c>
       <c r="AU8" s="1">
-        <v>16.778044</v>
+        <v>16.778044000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>996.211000</v>
+        <v>996.21100000000001</v>
       </c>
       <c r="AW8" s="1">
-        <v>-124.913000</v>
+        <v>-124.913</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>60412.018227</v>
       </c>
       <c r="AZ8" s="1">
-        <v>16.781116</v>
+        <v>16.781116000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1006.000000</v>
+        <v>1006</v>
       </c>
       <c r="BB8" s="1">
-        <v>-143.758000</v>
+        <v>-143.75800000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>60422.712479</v>
+        <v>60422.712479000002</v>
       </c>
       <c r="BE8" s="1">
         <v>16.784087</v>
       </c>
       <c r="BF8" s="1">
-        <v>1052.060000</v>
+        <v>1052.06</v>
       </c>
       <c r="BG8" s="1">
-        <v>-228.745000</v>
+        <v>-228.745</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>60433.415144</v>
+        <v>60433.415143999999</v>
       </c>
       <c r="BJ8" s="1">
-        <v>16.787060</v>
+        <v>16.78706</v>
       </c>
       <c r="BK8" s="1">
-        <v>1132.500000</v>
+        <v>1132.5</v>
       </c>
       <c r="BL8" s="1">
-        <v>-364.352000</v>
+        <v>-364.35199999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>60444.614840</v>
+        <v>60444.614840000002</v>
       </c>
       <c r="BO8" s="1">
-        <v>16.790171</v>
+        <v>16.790171000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1264.990000</v>
+        <v>1264.99</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-573.167000</v>
+        <v>-573.16700000000003</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>60455.881929</v>
+        <v>60455.881929000003</v>
       </c>
       <c r="BT8" s="1">
         <v>16.793301</v>
       </c>
       <c r="BU8" s="1">
-        <v>1413.530000</v>
+        <v>1413.53</v>
       </c>
       <c r="BV8" s="1">
-        <v>-795.569000</v>
+        <v>-795.56899999999996</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>60466.633243</v>
+        <v>60466.633242999997</v>
       </c>
       <c r="BY8" s="1">
         <v>16.796287</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1575.170000</v>
+        <v>1575.17</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1027.370000</v>
+        <v>-1027.3699999999999</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>60478.257454</v>
+        <v>60478.257453999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>16.799516</v>
+        <v>16.799516000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>1983.600000</v>
+        <v>1983.6</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1567.750000</v>
+        <v>-1567.75</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>60305.757041</v>
+        <v>60305.757040999997</v>
       </c>
       <c r="B9" s="1">
-        <v>16.751599</v>
+        <v>16.751598999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>904.741000</v>
+        <v>904.74099999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-192.942000</v>
+        <v>-192.94200000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>60315.895042</v>
+        <v>60315.895041999996</v>
       </c>
       <c r="G9" s="1">
-        <v>16.754415</v>
+        <v>16.754415000000002</v>
       </c>
       <c r="H9" s="1">
-        <v>920.565000</v>
+        <v>920.56500000000005</v>
       </c>
       <c r="I9" s="1">
-        <v>-163.416000</v>
+        <v>-163.416</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>60326.031817</v>
+        <v>60326.031817000003</v>
       </c>
       <c r="L9" s="1">
-        <v>16.757231</v>
+        <v>16.757231000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>942.233000</v>
+        <v>942.23299999999995</v>
       </c>
       <c r="N9" s="1">
-        <v>-117.534000</v>
+        <v>-117.53400000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>60337.217589</v>
       </c>
       <c r="Q9" s="1">
-        <v>16.760338</v>
+        <v>16.760338000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>948.516000</v>
+        <v>948.51599999999996</v>
       </c>
       <c r="S9" s="1">
-        <v>-102.620000</v>
+        <v>-102.62</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>60347.765016</v>
+        <v>60347.765015999998</v>
       </c>
       <c r="V9" s="1">
         <v>16.763268</v>
       </c>
       <c r="W9" s="1">
-        <v>954.849000</v>
+        <v>954.84900000000005</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.413300</v>
+        <v>-89.413300000000007</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>60358.561438</v>
+        <v>60358.561437999997</v>
       </c>
       <c r="AA9" s="1">
-        <v>16.766267</v>
+        <v>16.766266999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>962.098000</v>
+        <v>962.09799999999996</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.248900</v>
+        <v>-80.248900000000006</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>60369.082541</v>
+        <v>60369.082541000003</v>
       </c>
       <c r="AF9" s="1">
-        <v>16.769190</v>
+        <v>16.769189999999998</v>
       </c>
       <c r="AG9" s="1">
-        <v>967.189000</v>
+        <v>967.18899999999996</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.045000</v>
+        <v>-80.045000000000002</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>60379.569951</v>
+        <v>60379.569950999998</v>
       </c>
       <c r="AK9" s="1">
-        <v>16.772103</v>
+        <v>16.772103000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>975.264000</v>
+        <v>975.26400000000001</v>
       </c>
       <c r="AM9" s="1">
-        <v>-88.060400</v>
+        <v>-88.060400000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>60390.275104</v>
       </c>
       <c r="AP9" s="1">
-        <v>16.775076</v>
+        <v>16.775075999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>984.611000</v>
+        <v>984.61099999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-103.193000</v>
+        <v>-103.193</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>60401.389953</v>
+        <v>60401.389952999998</v>
       </c>
       <c r="AU9" s="1">
         <v>16.778164</v>
       </c>
       <c r="AV9" s="1">
-        <v>996.198000</v>
+        <v>996.19799999999998</v>
       </c>
       <c r="AW9" s="1">
-        <v>-124.923000</v>
+        <v>-124.923</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>60412.436389</v>
+        <v>60412.436389000002</v>
       </c>
       <c r="AZ9" s="1">
-        <v>16.781232</v>
+        <v>16.781231999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1006.020000</v>
+        <v>1006.02</v>
       </c>
       <c r="BB9" s="1">
-        <v>-143.760000</v>
+        <v>-143.76</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>60423.013410</v>
+        <v>60423.01341</v>
       </c>
       <c r="BE9" s="1">
-        <v>16.784170</v>
+        <v>16.78417</v>
       </c>
       <c r="BF9" s="1">
-        <v>1052.060000</v>
+        <v>1052.06</v>
       </c>
       <c r="BG9" s="1">
-        <v>-228.746000</v>
+        <v>-228.74600000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>60433.790118</v>
+        <v>60433.790117999997</v>
       </c>
       <c r="BJ9" s="1">
-        <v>16.787164</v>
+        <v>16.787164000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1132.560000</v>
+        <v>1132.56</v>
       </c>
       <c r="BL9" s="1">
-        <v>-364.386000</v>
+        <v>-364.38600000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>60445.037896</v>
+        <v>60445.037896000002</v>
       </c>
       <c r="BO9" s="1">
         <v>16.790288</v>
       </c>
       <c r="BP9" s="1">
-        <v>1264.980000</v>
+        <v>1264.98</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-573.137000</v>
+        <v>-573.13699999999994</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>60456.309020</v>
+        <v>60456.309020000001</v>
       </c>
       <c r="BT9" s="1">
         <v>16.793419</v>
       </c>
       <c r="BU9" s="1">
-        <v>1413.380000</v>
+        <v>1413.38</v>
       </c>
       <c r="BV9" s="1">
-        <v>-795.615000</v>
+        <v>-795.61500000000001</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>60467.060299</v>
+        <v>60467.060298999997</v>
       </c>
       <c r="BY9" s="1">
-        <v>16.796406</v>
+        <v>16.796406000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1575.110000</v>
+        <v>1575.11</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1027.390000</v>
+        <v>-1027.3900000000001</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>60478.798091</v>
+        <v>60478.798090999997</v>
       </c>
       <c r="CD9" s="1">
-        <v>16.799666</v>
+        <v>16.799665999999998</v>
       </c>
       <c r="CE9" s="1">
-        <v>1981.740000</v>
+        <v>1981.74</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1567.400000</v>
+        <v>-1567.4</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>60306.099054</v>
+        <v>60306.099053999998</v>
       </c>
       <c r="B10" s="1">
-        <v>16.751694</v>
+        <v>16.751694000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>904.887000</v>
+        <v>904.88699999999994</v>
       </c>
       <c r="D10" s="1">
-        <v>-193.061000</v>
+        <v>-193.06100000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>60316.537887</v>
+        <v>60316.537886999999</v>
       </c>
       <c r="G10" s="1">
-        <v>16.754594</v>
+        <v>16.754594000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>921.140000</v>
+        <v>921.14</v>
       </c>
       <c r="I10" s="1">
-        <v>-163.511000</v>
+        <v>-163.511</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>60326.686501</v>
+        <v>60326.686500999996</v>
       </c>
       <c r="L10" s="1">
         <v>16.757413</v>
       </c>
       <c r="M10" s="1">
-        <v>942.061000</v>
+        <v>942.06100000000004</v>
       </c>
       <c r="N10" s="1">
-        <v>-117.553000</v>
+        <v>-117.553</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>60337.605925</v>
+        <v>60337.605925000003</v>
       </c>
       <c r="Q10" s="1">
-        <v>16.760446</v>
+        <v>16.760446000000002</v>
       </c>
       <c r="R10" s="1">
-        <v>948.508000</v>
+        <v>948.50800000000004</v>
       </c>
       <c r="S10" s="1">
-        <v>-102.620000</v>
+        <v>-102.62</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>60348.112183</v>
+        <v>60348.112182999997</v>
       </c>
       <c r="V10" s="1">
-        <v>16.763364</v>
+        <v>16.763363999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>954.898000</v>
+        <v>954.89800000000002</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.333900</v>
+        <v>-89.3339</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>60358.911578</v>
+        <v>60358.911577999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>16.766364</v>
+        <v>16.766363999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>962.117000</v>
+        <v>962.11699999999996</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.240600</v>
+        <v>-80.240600000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>60369.426764</v>
+        <v>60369.426764000003</v>
       </c>
       <c r="AF10" s="1">
         <v>16.769285</v>
       </c>
       <c r="AG10" s="1">
-        <v>967.204000</v>
+        <v>967.20399999999995</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.040100</v>
+        <v>-80.040099999999995</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>60379.920126</v>
+        <v>60379.920125999997</v>
       </c>
       <c r="AK10" s="1">
-        <v>16.772200</v>
+        <v>16.772200000000002</v>
       </c>
       <c r="AL10" s="1">
-        <v>975.278000</v>
+        <v>975.27800000000002</v>
       </c>
       <c r="AM10" s="1">
-        <v>-88.071400</v>
+        <v>-88.071399999999997</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>60390.705135</v>
+        <v>60390.705134999997</v>
       </c>
       <c r="AP10" s="1">
-        <v>16.775196</v>
+        <v>16.775196000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>984.627000</v>
+        <v>984.62699999999995</v>
       </c>
       <c r="AR10" s="1">
-        <v>-103.179000</v>
+        <v>-103.179</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>60401.689073</v>
+        <v>60401.689073000001</v>
       </c>
       <c r="AU10" s="1">
         <v>16.778247</v>
       </c>
       <c r="AV10" s="1">
-        <v>996.211000</v>
+        <v>996.21100000000001</v>
       </c>
       <c r="AW10" s="1">
-        <v>-124.940000</v>
+        <v>-124.94</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>60412.735443</v>
+        <v>60412.735442999998</v>
       </c>
       <c r="AZ10" s="1">
-        <v>16.781315</v>
+        <v>16.781314999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1005.980000</v>
+        <v>1005.98</v>
       </c>
       <c r="BB10" s="1">
-        <v>-143.756000</v>
+        <v>-143.756</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>60423.371157</v>
+        <v>60423.371157000001</v>
       </c>
       <c r="BE10" s="1">
-        <v>16.784270</v>
+        <v>16.784269999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1052.070000</v>
+        <v>1052.07</v>
       </c>
       <c r="BG10" s="1">
-        <v>-228.749000</v>
+        <v>-228.749</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>60434.164102</v>
+        <v>60434.164102000002</v>
       </c>
       <c r="BJ10" s="1">
-        <v>16.787268</v>
+        <v>16.787268000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1132.530000</v>
+        <v>1132.53</v>
       </c>
       <c r="BL10" s="1">
-        <v>-364.304000</v>
+        <v>-364.30399999999997</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>60445.434696</v>
+        <v>60445.434695999997</v>
       </c>
       <c r="BO10" s="1">
-        <v>16.790399</v>
+        <v>16.790399000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1264.970000</v>
+        <v>1264.97</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-573.147000</v>
+        <v>-573.14700000000005</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>60456.734056</v>
+        <v>60456.734056000001</v>
       </c>
       <c r="BT10" s="1">
-        <v>16.793537</v>
+        <v>16.793537000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1413.500000</v>
+        <v>1413.5</v>
       </c>
       <c r="BV10" s="1">
-        <v>-795.628000</v>
+        <v>-795.62800000000004</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>60467.477897</v>
+        <v>60467.477896999997</v>
       </c>
       <c r="BY10" s="1">
         <v>16.796522</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1575.050000</v>
+        <v>1575.05</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1027.200000</v>
+        <v>-1027.2</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>60479.336746</v>
+        <v>60479.336746000001</v>
       </c>
       <c r="CD10" s="1">
         <v>16.799816</v>
       </c>
       <c r="CE10" s="1">
-        <v>1983.320000</v>
+        <v>1983.32</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1568.960000</v>
+        <v>-1568.96</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>60306.752782</v>
+        <v>60306.752782000003</v>
       </c>
       <c r="B11" s="1">
-        <v>16.751876</v>
+        <v>16.751875999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>904.693000</v>
+        <v>904.69299999999998</v>
       </c>
       <c r="D11" s="1">
-        <v>-192.953000</v>
+        <v>-192.953</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>60316.906881</v>
+        <v>60316.906881000003</v>
       </c>
       <c r="G11" s="1">
-        <v>16.754696</v>
+        <v>16.754695999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>920.711000</v>
+        <v>920.71100000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>-163.116000</v>
+        <v>-163.11600000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>60327.067924</v>
+        <v>60327.067924000003</v>
       </c>
       <c r="L11" s="1">
-        <v>16.757519</v>
+        <v>16.757518999999998</v>
       </c>
       <c r="M11" s="1">
-        <v>942.135000</v>
+        <v>942.13499999999999</v>
       </c>
       <c r="N11" s="1">
-        <v>-117.423000</v>
+        <v>-117.423</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>60337.952138</v>
+        <v>60337.952138000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>16.760542</v>
+        <v>16.760542000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>948.466000</v>
+        <v>948.46600000000001</v>
       </c>
       <c r="S11" s="1">
-        <v>-102.601000</v>
+        <v>-102.601</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>60348.454919</v>
+        <v>60348.454919000003</v>
       </c>
       <c r="V11" s="1">
-        <v>16.763460</v>
+        <v>16.763459999999998</v>
       </c>
       <c r="W11" s="1">
-        <v>954.863000</v>
+        <v>954.86300000000006</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.336500</v>
+        <v>-89.336500000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>60359.257288</v>
+        <v>60359.257288000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>16.766460</v>
+        <v>16.766459999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>962.200000</v>
+        <v>962.2</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.239800</v>
+        <v>-80.239800000000002</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>60369.856298</v>
+        <v>60369.856297999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>16.769405</v>
+        <v>16.769404999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>967.188000</v>
+        <v>967.18799999999999</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.062100</v>
+        <v>-80.062100000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>60380.332830</v>
+        <v>60380.332829999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>16.772315</v>
+        <v>16.772314999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>975.259000</v>
+        <v>975.25900000000001</v>
       </c>
       <c r="AM11" s="1">
-        <v>-88.066700</v>
+        <v>-88.066699999999997</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>60390.998271</v>
+        <v>60390.998270999997</v>
       </c>
       <c r="AP11" s="1">
-        <v>16.775277</v>
+        <v>16.775276999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>984.611000</v>
+        <v>984.61099999999999</v>
       </c>
       <c r="AR11" s="1">
-        <v>-103.181000</v>
+        <v>-103.181</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>60402.053601</v>
       </c>
       <c r="AU11" s="1">
-        <v>16.778348</v>
+        <v>16.778348000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>996.194000</v>
+        <v>996.19399999999996</v>
       </c>
       <c r="AW11" s="1">
-        <v>-124.943000</v>
+        <v>-124.943</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>60413.094547</v>
+        <v>60413.094547000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>16.781415</v>
+        <v>16.781414999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1005.990000</v>
+        <v>1005.99</v>
       </c>
       <c r="BB11" s="1">
-        <v>-143.760000</v>
+        <v>-143.76</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>60423.737203</v>
+        <v>60423.737202999997</v>
       </c>
       <c r="BE11" s="1">
         <v>16.784371</v>
       </c>
       <c r="BF11" s="1">
-        <v>1052.070000</v>
+        <v>1052.07</v>
       </c>
       <c r="BG11" s="1">
-        <v>-228.747000</v>
+        <v>-228.74700000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>60434.913099</v>
+        <v>60434.913098999998</v>
       </c>
       <c r="BJ11" s="1">
-        <v>16.787476</v>
+        <v>16.787476000000002</v>
       </c>
       <c r="BK11" s="1">
-        <v>1132.530000</v>
+        <v>1132.53</v>
       </c>
       <c r="BL11" s="1">
-        <v>-364.352000</v>
+        <v>-364.35199999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>60445.866214</v>
+        <v>60445.866214000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>16.790518</v>
+        <v>16.790517999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1264.980000</v>
+        <v>1264.98</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-573.195000</v>
+        <v>-573.19500000000005</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>60457.153176</v>
@@ -3004,303 +3420,303 @@
         <v>16.793654</v>
       </c>
       <c r="BU11" s="1">
-        <v>1413.500000</v>
+        <v>1413.5</v>
       </c>
       <c r="BV11" s="1">
-        <v>-795.607000</v>
+        <v>-795.60699999999997</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>60467.924327</v>
+        <v>60467.924327000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>16.796646</v>
+        <v>16.796645999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1575.190000</v>
+        <v>1575.19</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1027.290000</v>
+        <v>-1027.29</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>60479.876925</v>
+        <v>60479.876924999997</v>
       </c>
       <c r="CD11" s="1">
-        <v>16.799966</v>
+        <v>16.799966000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>1982.580000</v>
+        <v>1982.58</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1566.620000</v>
+        <v>-1566.62</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>60307.121309</v>
+        <v>60307.121309000002</v>
       </c>
       <c r="B12" s="1">
-        <v>16.751978</v>
+        <v>16.751978000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>904.713000</v>
+        <v>904.71299999999997</v>
       </c>
       <c r="D12" s="1">
-        <v>-193.018000</v>
+        <v>-193.018</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>60317.249618</v>
+        <v>60317.249618000002</v>
       </c>
       <c r="G12" s="1">
-        <v>16.754792</v>
+        <v>16.754791999999998</v>
       </c>
       <c r="H12" s="1">
-        <v>920.663000</v>
+        <v>920.66300000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-163.541000</v>
+        <v>-163.541</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>60327.412652</v>
+        <v>60327.412651999999</v>
       </c>
       <c r="L12" s="1">
-        <v>16.757615</v>
+        <v>16.757615000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>941.992000</v>
+        <v>941.99199999999996</v>
       </c>
       <c r="N12" s="1">
-        <v>-117.434000</v>
+        <v>-117.434</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>60338.300325</v>
+        <v>60338.300324999997</v>
       </c>
       <c r="Q12" s="1">
-        <v>16.760639</v>
+        <v>16.760639000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>948.505000</v>
+        <v>948.505</v>
       </c>
       <c r="S12" s="1">
-        <v>-102.557000</v>
+        <v>-102.557</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>60349.075911</v>
       </c>
       <c r="V12" s="1">
-        <v>16.763632</v>
+        <v>16.763632000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>954.896000</v>
+        <v>954.89599999999996</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.331400</v>
+        <v>-89.331400000000002</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>60359.673963</v>
+        <v>60359.673963000001</v>
       </c>
       <c r="AA12" s="1">
-        <v>16.766576</v>
+        <v>16.766576000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>962.161000</v>
+        <v>962.16099999999994</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.282800</v>
+        <v>-80.282799999999995</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>60370.121687</v>
+        <v>60370.121686999999</v>
       </c>
       <c r="AF12" s="1">
-        <v>16.769478</v>
+        <v>16.769477999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>967.179000</v>
+        <v>967.17899999999997</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.048900</v>
+        <v>-80.048900000000003</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>60380.631886</v>
+        <v>60380.631886000003</v>
       </c>
       <c r="AK12" s="1">
-        <v>16.772398</v>
+        <v>16.772397999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>975.291000</v>
+        <v>975.29100000000005</v>
       </c>
       <c r="AM12" s="1">
-        <v>-88.081000</v>
+        <v>-88.081000000000003</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>60391.358367</v>
+        <v>60391.358367000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>16.775377</v>
+        <v>16.775376999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>984.624000</v>
+        <v>984.62400000000002</v>
       </c>
       <c r="AR12" s="1">
-        <v>-103.172000</v>
+        <v>-103.172</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>60402.417663</v>
       </c>
       <c r="AU12" s="1">
-        <v>16.778449</v>
+        <v>16.778448999999998</v>
       </c>
       <c r="AV12" s="1">
-        <v>996.210000</v>
+        <v>996.21</v>
       </c>
       <c r="AW12" s="1">
-        <v>-124.920000</v>
+        <v>-124.92</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>60413.451169</v>
       </c>
       <c r="AZ12" s="1">
-        <v>16.781514</v>
+        <v>16.781514000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1006.000000</v>
+        <v>1006</v>
       </c>
       <c r="BB12" s="1">
-        <v>-143.765000</v>
+        <v>-143.76499999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>60424.455938</v>
+        <v>60424.455937999999</v>
       </c>
       <c r="BE12" s="1">
         <v>16.784571</v>
       </c>
       <c r="BF12" s="1">
-        <v>1052.050000</v>
+        <v>1052.05</v>
       </c>
       <c r="BG12" s="1">
-        <v>-228.746000</v>
+        <v>-228.74600000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>60435.293531</v>
+        <v>60435.293531000003</v>
       </c>
       <c r="BJ12" s="1">
         <v>16.787582</v>
       </c>
       <c r="BK12" s="1">
-        <v>1132.530000</v>
+        <v>1132.53</v>
       </c>
       <c r="BL12" s="1">
-        <v>-364.387000</v>
+        <v>-364.387</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>60446.248662</v>
+        <v>60446.248661999998</v>
       </c>
       <c r="BO12" s="1">
-        <v>16.790625</v>
+        <v>16.790624999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1264.970000</v>
+        <v>1264.97</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-573.144000</v>
+        <v>-573.14400000000001</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>60457.579734</v>
+        <v>60457.579733999999</v>
       </c>
       <c r="BT12" s="1">
-        <v>16.793772</v>
+        <v>16.793772000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1413.560000</v>
+        <v>1413.56</v>
       </c>
       <c r="BV12" s="1">
-        <v>-795.605000</v>
+        <v>-795.60500000000002</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>60468.655928</v>
       </c>
       <c r="BY12" s="1">
-        <v>16.796849</v>
+        <v>16.796849000000002</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1575.240000</v>
+        <v>1575.24</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1027.130000</v>
+        <v>-1027.1300000000001</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>60480.726568</v>
+        <v>60480.726567999998</v>
       </c>
       <c r="CD12" s="1">
-        <v>16.800202</v>
+        <v>16.800201999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>1983.620000</v>
+        <v>1983.62</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1568.050000</v>
+        <v>-1568.05</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>60307.465569</v>
       </c>
@@ -3308,178 +3724,178 @@
         <v>16.752074</v>
       </c>
       <c r="C13" s="1">
-        <v>904.824000</v>
+        <v>904.82399999999996</v>
       </c>
       <c r="D13" s="1">
-        <v>-193.011000</v>
+        <v>-193.011</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>60317.595360</v>
+        <v>60317.595359999999</v>
       </c>
       <c r="G13" s="1">
-        <v>16.754888</v>
+        <v>16.754888000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>920.730000</v>
+        <v>920.73</v>
       </c>
       <c r="I13" s="1">
-        <v>-163.518000</v>
+        <v>-163.518</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>60327.758850</v>
+        <v>60327.758849999998</v>
       </c>
       <c r="L13" s="1">
         <v>16.757711</v>
       </c>
       <c r="M13" s="1">
-        <v>942.139000</v>
+        <v>942.13900000000001</v>
       </c>
       <c r="N13" s="1">
-        <v>-117.593000</v>
+        <v>-117.593</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>60338.730356</v>
       </c>
       <c r="Q13" s="1">
-        <v>16.760758</v>
+        <v>16.760757999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>948.513000</v>
+        <v>948.51300000000003</v>
       </c>
       <c r="S13" s="1">
-        <v>-102.531000</v>
+        <v>-102.53100000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>60349.489079</v>
+        <v>60349.489078999999</v>
       </c>
       <c r="V13" s="1">
-        <v>16.763747</v>
+        <v>16.763746999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>954.885000</v>
+        <v>954.88499999999999</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.388500</v>
+        <v>-89.388499999999993</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>60359.957175</v>
+        <v>60359.957175000003</v>
       </c>
       <c r="AA13" s="1">
         <v>16.766655</v>
       </c>
       <c r="AB13" s="1">
-        <v>962.103000</v>
+        <v>962.10299999999995</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.273300</v>
+        <v>-80.273300000000006</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>60370.466378</v>
+        <v>60370.466377999997</v>
       </c>
       <c r="AF13" s="1">
-        <v>16.769574</v>
+        <v>16.769573999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>967.204000</v>
+        <v>967.20399999999995</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.057500</v>
+        <v>-80.057500000000005</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>60380.983550</v>
+        <v>60380.983549999997</v>
       </c>
       <c r="AK13" s="1">
-        <v>16.772495</v>
+        <v>16.772494999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>975.286000</v>
+        <v>975.28599999999994</v>
       </c>
       <c r="AM13" s="1">
-        <v>-88.054900</v>
+        <v>-88.054900000000004</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>60391.718496</v>
+        <v>60391.718496000001</v>
       </c>
       <c r="AP13" s="1">
-        <v>16.775477</v>
+        <v>16.775476999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>984.598000</v>
+        <v>984.59799999999996</v>
       </c>
       <c r="AR13" s="1">
-        <v>-103.201000</v>
+        <v>-103.20099999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>60403.146821</v>
+        <v>60403.146821000002</v>
       </c>
       <c r="AU13" s="1">
-        <v>16.778652</v>
+        <v>16.778652000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>996.182000</v>
+        <v>996.18200000000002</v>
       </c>
       <c r="AW13" s="1">
-        <v>-124.903000</v>
+        <v>-124.90300000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>60414.173840</v>
+        <v>60414.173840000003</v>
       </c>
       <c r="AZ13" s="1">
-        <v>16.781715</v>
+        <v>16.781714999999998</v>
       </c>
       <c r="BA13" s="1">
-        <v>1005.990000</v>
+        <v>1005.99</v>
       </c>
       <c r="BB13" s="1">
-        <v>-143.769000</v>
+        <v>-143.76900000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>60424.845266</v>
+        <v>60424.845265999997</v>
       </c>
       <c r="BE13" s="1">
-        <v>16.784679</v>
+        <v>16.784679000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1052.050000</v>
+        <v>1052.05</v>
       </c>
       <c r="BG13" s="1">
-        <v>-228.736000</v>
+        <v>-228.73599999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>60435.665492</v>
@@ -3488,300 +3904,300 @@
         <v>16.787685</v>
       </c>
       <c r="BK13" s="1">
-        <v>1132.540000</v>
+        <v>1132.54</v>
       </c>
       <c r="BL13" s="1">
-        <v>-364.341000</v>
+        <v>-364.34100000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>60446.669237</v>
+        <v>60446.669237000002</v>
       </c>
       <c r="BO13" s="1">
-        <v>16.790741</v>
+        <v>16.790741000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1264.970000</v>
+        <v>1264.97</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-573.166000</v>
+        <v>-573.16600000000005</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>60458.295499</v>
       </c>
       <c r="BT13" s="1">
-        <v>16.793971</v>
+        <v>16.793970999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1413.400000</v>
+        <v>1413.4</v>
       </c>
       <c r="BV13" s="1">
-        <v>-795.653000</v>
+        <v>-795.65300000000002</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>60468.769482</v>
+        <v>60468.769482000003</v>
       </c>
       <c r="BY13" s="1">
-        <v>16.796880</v>
+        <v>16.796880000000002</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1575.170000</v>
+        <v>1575.17</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1027.200000</v>
+        <v>-1027.2</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>60480.957177</v>
+        <v>60480.957176999997</v>
       </c>
       <c r="CD13" s="1">
-        <v>16.800266</v>
+        <v>16.800266000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>1983.320000</v>
+        <v>1983.32</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1568.260000</v>
+        <v>-1568.26</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>60307.805325</v>
+        <v>60307.805325000001</v>
       </c>
       <c r="B14" s="1">
-        <v>16.752168</v>
+        <v>16.752168000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>904.831000</v>
+        <v>904.83100000000002</v>
       </c>
       <c r="D14" s="1">
-        <v>-192.924000</v>
+        <v>-192.92400000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>60318.012463</v>
+        <v>60318.012462999999</v>
       </c>
       <c r="G14" s="1">
-        <v>16.755003</v>
+        <v>16.755002999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>920.896000</v>
+        <v>920.89599999999996</v>
       </c>
       <c r="I14" s="1">
-        <v>-163.473000</v>
+        <v>-163.47300000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>60328.174534</v>
+        <v>60328.174533999998</v>
       </c>
       <c r="L14" s="1">
-        <v>16.757826</v>
+        <v>16.757826000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>942.038000</v>
+        <v>942.03800000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-117.446000</v>
+        <v>-117.446</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>60339.002659</v>
+        <v>60339.002658999998</v>
       </c>
       <c r="Q14" s="1">
-        <v>16.760834</v>
+        <v>16.760833999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>948.502000</v>
+        <v>948.50199999999995</v>
       </c>
       <c r="S14" s="1">
-        <v>-102.591000</v>
+        <v>-102.59099999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>60349.832805</v>
+        <v>60349.832804999998</v>
       </c>
       <c r="V14" s="1">
         <v>16.763842</v>
       </c>
       <c r="W14" s="1">
-        <v>954.931000</v>
+        <v>954.93100000000004</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.242500</v>
+        <v>-89.242500000000007</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>60360.307328</v>
+        <v>60360.307328000003</v>
       </c>
       <c r="AA14" s="1">
         <v>16.766752</v>
       </c>
       <c r="AB14" s="1">
-        <v>962.124000</v>
+        <v>962.12400000000002</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.289200</v>
+        <v>-80.289199999999994</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>60370.806138</v>
       </c>
       <c r="AF14" s="1">
-        <v>16.769668</v>
+        <v>16.769667999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>967.184000</v>
+        <v>967.18399999999997</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.043400</v>
+        <v>-80.043400000000005</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>60381.331771</v>
+        <v>60381.331770999997</v>
       </c>
       <c r="AK14" s="1">
         <v>16.772592</v>
       </c>
       <c r="AL14" s="1">
-        <v>975.284000</v>
+        <v>975.28399999999999</v>
       </c>
       <c r="AM14" s="1">
-        <v>-88.060300</v>
+        <v>-88.060299999999998</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>60392.446125</v>
+        <v>60392.446125000002</v>
       </c>
       <c r="AP14" s="1">
         <v>16.775679</v>
       </c>
       <c r="AQ14" s="1">
-        <v>984.624000</v>
+        <v>984.62400000000002</v>
       </c>
       <c r="AR14" s="1">
-        <v>-103.187000</v>
+        <v>-103.187</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
         <v>60403.538622</v>
       </c>
       <c r="AU14" s="1">
-        <v>16.778761</v>
+        <v>16.778760999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>996.199000</v>
+        <v>996.19899999999996</v>
       </c>
       <c r="AW14" s="1">
-        <v>-124.941000</v>
+        <v>-124.941</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>60414.539887</v>
+        <v>60414.539886999999</v>
       </c>
       <c r="AZ14" s="1">
         <v>16.781817</v>
       </c>
       <c r="BA14" s="1">
-        <v>1006.010000</v>
+        <v>1006.01</v>
       </c>
       <c r="BB14" s="1">
-        <v>-143.772000</v>
+        <v>-143.77199999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>60425.204370</v>
+        <v>60425.204369999999</v>
       </c>
       <c r="BE14" s="1">
         <v>16.784779</v>
       </c>
       <c r="BF14" s="1">
-        <v>1052.090000</v>
+        <v>1052.0899999999999</v>
       </c>
       <c r="BG14" s="1">
-        <v>-228.715000</v>
+        <v>-228.715</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>60436.352947</v>
+        <v>60436.352946999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>16.787876</v>
+        <v>16.787876000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1132.520000</v>
+        <v>1132.52</v>
       </c>
       <c r="BL14" s="1">
-        <v>-364.363000</v>
+        <v>-364.363</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>60447.389429</v>
+        <v>60447.389429000003</v>
       </c>
       <c r="BO14" s="1">
-        <v>16.790942</v>
+        <v>16.790942000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1264.940000</v>
+        <v>1264.94</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-573.193000</v>
+        <v>-573.19299999999998</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>60458.422935</v>
+        <v>60458.422935000002</v>
       </c>
       <c r="BT14" s="1">
         <v>16.794006</v>
       </c>
       <c r="BU14" s="1">
-        <v>1413.490000</v>
+        <v>1413.49</v>
       </c>
       <c r="BV14" s="1">
-        <v>-795.589000</v>
+        <v>-795.58900000000006</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>60469.219847</v>
@@ -3790,302 +4206,302 @@
         <v>16.797006</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1575.190000</v>
+        <v>1575.19</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1027.350000</v>
+        <v>-1027.3499999999999</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>60481.500791</v>
+        <v>60481.500790999999</v>
       </c>
       <c r="CD14" s="1">
-        <v>16.800417</v>
+        <v>16.800416999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>1983.190000</v>
+        <v>1983.19</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1566.650000</v>
+        <v>-1566.65</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>60308.236356</v>
+        <v>60308.236356000001</v>
       </c>
       <c r="B15" s="1">
         <v>16.752288</v>
       </c>
       <c r="C15" s="1">
-        <v>904.740000</v>
+        <v>904.74</v>
       </c>
       <c r="D15" s="1">
-        <v>-193.018000</v>
+        <v>-193.018</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>60318.289335</v>
+        <v>60318.289335000001</v>
       </c>
       <c r="G15" s="1">
-        <v>16.755080</v>
+        <v>16.75508</v>
       </c>
       <c r="H15" s="1">
-        <v>920.757000</v>
+        <v>920.75699999999995</v>
       </c>
       <c r="I15" s="1">
-        <v>-163.749000</v>
+        <v>-163.749</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>60328.471125</v>
+        <v>60328.471124999996</v>
       </c>
       <c r="L15" s="1">
-        <v>16.757909</v>
+        <v>16.757909000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>942.263000</v>
+        <v>942.26300000000003</v>
       </c>
       <c r="N15" s="1">
-        <v>-117.454000</v>
+        <v>-117.45399999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>60339.351842</v>
+        <v>60339.351841999996</v>
       </c>
       <c r="Q15" s="1">
-        <v>16.760931</v>
+        <v>16.760930999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>948.497000</v>
+        <v>948.49699999999996</v>
       </c>
       <c r="S15" s="1">
-        <v>-102.621000</v>
+        <v>-102.621</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>60350.179012</v>
+        <v>60350.179012000001</v>
       </c>
       <c r="V15" s="1">
-        <v>16.763939</v>
+        <v>16.763939000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>954.848000</v>
+        <v>954.84799999999996</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.329300</v>
+        <v>-89.329300000000003</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>60360.655015</v>
+        <v>60360.655014999997</v>
       </c>
       <c r="AA15" s="1">
-        <v>16.766849</v>
+        <v>16.766849000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>962.179000</v>
+        <v>962.17899999999997</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.300500</v>
+        <v>-80.3005</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>60371.496073</v>
+        <v>60371.496073000002</v>
       </c>
       <c r="AF15" s="1">
-        <v>16.769860</v>
+        <v>16.769860000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>967.230000</v>
+        <v>967.23</v>
       </c>
       <c r="AH15" s="1">
-        <v>-80.062600</v>
+        <v>-80.062600000000003</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>60382.034609</v>
+        <v>60382.034609000002</v>
       </c>
       <c r="AK15" s="1">
-        <v>16.772787</v>
+        <v>16.772787000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>975.279000</v>
+        <v>975.279</v>
       </c>
       <c r="AM15" s="1">
-        <v>-88.080800</v>
+        <v>-88.080799999999996</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>60392.826060</v>
+        <v>60392.826059999999</v>
       </c>
       <c r="AP15" s="1">
-        <v>16.775785</v>
+        <v>16.775784999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>984.615000</v>
+        <v>984.61500000000001</v>
       </c>
       <c r="AR15" s="1">
-        <v>-103.192000</v>
+        <v>-103.19199999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>60403.906159</v>
+        <v>60403.906158999998</v>
       </c>
       <c r="AU15" s="1">
-        <v>16.778863</v>
+        <v>16.778863000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>996.219000</v>
+        <v>996.21900000000005</v>
       </c>
       <c r="AW15" s="1">
-        <v>-124.885000</v>
+        <v>-124.88500000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>60414.928753</v>
       </c>
       <c r="AZ15" s="1">
-        <v>16.781925</v>
+        <v>16.781925000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1006.000000</v>
+        <v>1006</v>
       </c>
       <c r="BB15" s="1">
-        <v>-143.759000</v>
+        <v>-143.75899999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>60425.877440</v>
+        <v>60425.877439999997</v>
       </c>
       <c r="BE15" s="1">
-        <v>16.784966</v>
+        <v>16.784966000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1052.070000</v>
+        <v>1052.07</v>
       </c>
       <c r="BG15" s="1">
-        <v>-228.727000</v>
+        <v>-228.727</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>60436.796370</v>
+        <v>60436.796369999996</v>
       </c>
       <c r="BJ15" s="1">
-        <v>16.787999</v>
+        <v>16.787998999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1132.570000</v>
+        <v>1132.57</v>
       </c>
       <c r="BL15" s="1">
-        <v>-364.352000</v>
+        <v>-364.35199999999998</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>60447.507475</v>
+        <v>60447.507474999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>16.790974</v>
+        <v>16.790973999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1264.950000</v>
+        <v>1264.95</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-573.164000</v>
+        <v>-573.16399999999999</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>60458.860933</v>
+        <v>60458.860933000004</v>
       </c>
       <c r="BT15" s="1">
-        <v>16.794128</v>
+        <v>16.794128000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1413.490000</v>
+        <v>1413.49</v>
       </c>
       <c r="BV15" s="1">
-        <v>-795.649000</v>
+        <v>-795.649</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>60469.647398</v>
+        <v>60469.647398000001</v>
       </c>
       <c r="BY15" s="1">
         <v>16.797124</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1575.300000</v>
+        <v>1575.3</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1027.220000</v>
+        <v>-1027.22</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>60482.096022</v>
+        <v>60482.096021999998</v>
       </c>
       <c r="CD15" s="1">
-        <v>16.800582</v>
+        <v>16.800581999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>1981.610000</v>
+        <v>1981.61</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1567.350000</v>
+        <v>-1567.35</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>60308.508652</v>
+        <v>60308.508651999997</v>
       </c>
       <c r="B16" s="1">
         <v>16.752364</v>
       </c>
       <c r="C16" s="1">
-        <v>904.653000</v>
+        <v>904.65300000000002</v>
       </c>
       <c r="D16" s="1">
-        <v>-193.145000</v>
+        <v>-193.14500000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>60318.637422</v>
@@ -4094,28 +4510,28 @@
         <v>16.755177</v>
       </c>
       <c r="H16" s="1">
-        <v>920.955000</v>
+        <v>920.95500000000004</v>
       </c>
       <c r="I16" s="1">
-        <v>-163.673000</v>
+        <v>-163.673</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>60328.817349</v>
+        <v>60328.817348999997</v>
       </c>
       <c r="L16" s="1">
-        <v>16.758005</v>
+        <v>16.758005000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>942.250000</v>
+        <v>942.25</v>
       </c>
       <c r="N16" s="1">
-        <v>-117.551000</v>
+        <v>-117.551</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>60339.701063</v>
@@ -4124,58 +4540,58 @@
         <v>16.761028</v>
       </c>
       <c r="R16" s="1">
-        <v>948.490000</v>
+        <v>948.49</v>
       </c>
       <c r="S16" s="1">
-        <v>-102.614000</v>
+        <v>-102.614</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>60350.866964</v>
+        <v>60350.866964000001</v>
       </c>
       <c r="V16" s="1">
-        <v>16.764130</v>
+        <v>16.764130000000002</v>
       </c>
       <c r="W16" s="1">
-        <v>954.812000</v>
+        <v>954.81200000000001</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.327700</v>
+        <v>-89.327699999999993</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>60361.352136</v>
+        <v>60361.352136000001</v>
       </c>
       <c r="AA16" s="1">
         <v>16.767042</v>
       </c>
       <c r="AB16" s="1">
-        <v>962.180000</v>
+        <v>962.18</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.304200</v>
+        <v>-80.304199999999994</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>60371.836328</v>
+        <v>60371.836327999998</v>
       </c>
       <c r="AF16" s="1">
         <v>16.769955</v>
       </c>
       <c r="AG16" s="1">
-        <v>967.214000</v>
+        <v>967.21400000000006</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.026900</v>
+        <v>-80.026899999999998</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>60382.377342</v>
@@ -4184,43 +4600,43 @@
         <v>16.772883</v>
       </c>
       <c r="AL16" s="1">
-        <v>975.268000</v>
+        <v>975.26800000000003</v>
       </c>
       <c r="AM16" s="1">
-        <v>-88.074200</v>
+        <v>-88.074200000000005</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>60393.184172</v>
+        <v>60393.184172000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>16.775884</v>
+        <v>16.775884000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>984.607000</v>
+        <v>984.60699999999997</v>
       </c>
       <c r="AR16" s="1">
-        <v>-103.184000</v>
+        <v>-103.184</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>60404.579230</v>
+        <v>60404.579230000003</v>
       </c>
       <c r="AU16" s="1">
-        <v>16.779050</v>
+        <v>16.779050000000002</v>
       </c>
       <c r="AV16" s="1">
-        <v>996.200000</v>
+        <v>996.2</v>
       </c>
       <c r="AW16" s="1">
-        <v>-124.929000</v>
+        <v>-124.929</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>60415.387056</v>
@@ -4229,285 +4645,285 @@
         <v>16.782052</v>
       </c>
       <c r="BA16" s="1">
-        <v>1005.990000</v>
+        <v>1005.99</v>
       </c>
       <c r="BB16" s="1">
-        <v>-143.774000</v>
+        <v>-143.774</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>60426.316929</v>
+        <v>60426.316929000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>16.785088</v>
+        <v>16.785087999999998</v>
       </c>
       <c r="BF16" s="1">
-        <v>1052.070000</v>
+        <v>1052.07</v>
       </c>
       <c r="BG16" s="1">
-        <v>-228.763000</v>
+        <v>-228.76300000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>60437.169858</v>
+        <v>60437.169858000001</v>
       </c>
       <c r="BJ16" s="1">
         <v>16.788103</v>
       </c>
       <c r="BK16" s="1">
-        <v>1132.510000</v>
+        <v>1132.51</v>
       </c>
       <c r="BL16" s="1">
-        <v>-364.339000</v>
+        <v>-364.339</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>60447.954883</v>
+        <v>60447.954882999999</v>
       </c>
       <c r="BO16" s="1">
-        <v>16.791099</v>
+        <v>16.791098999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1265.000000</v>
+        <v>1265</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-573.146000</v>
+        <v>-573.14599999999996</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>60459.288949</v>
+        <v>60459.288949000002</v>
       </c>
       <c r="BT16" s="1">
-        <v>16.794247</v>
+        <v>16.794246999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1413.610000</v>
+        <v>1413.61</v>
       </c>
       <c r="BV16" s="1">
-        <v>-795.660000</v>
+        <v>-795.66</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>60470.071014</v>
+        <v>60470.071014000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>16.797242</v>
+        <v>16.797242000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1575.230000</v>
+        <v>1575.23</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1027.240000</v>
+        <v>-1027.24</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>60482.512166</v>
       </c>
       <c r="CD16" s="1">
-        <v>16.800698</v>
+        <v>16.800698000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>1982.180000</v>
+        <v>1982.18</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1568.620000</v>
+        <v>-1568.62</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>60308.848876</v>
+        <v>60308.848875999996</v>
       </c>
       <c r="B17" s="1">
-        <v>16.752458</v>
+        <v>16.752458000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>904.765000</v>
+        <v>904.76499999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-193.056000</v>
+        <v>-193.05600000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>60318.980159</v>
+        <v>60318.980158999999</v>
       </c>
       <c r="G17" s="1">
-        <v>16.755272</v>
+        <v>16.755272000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>920.663000</v>
+        <v>920.66300000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>-163.779000</v>
+        <v>-163.779</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>60329.163026</v>
+        <v>60329.163026000002</v>
       </c>
       <c r="L17" s="1">
         <v>16.758101</v>
       </c>
       <c r="M17" s="1">
-        <v>942.166000</v>
+        <v>942.16600000000005</v>
       </c>
       <c r="N17" s="1">
-        <v>-117.474000</v>
+        <v>-117.474</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>60340.398438</v>
+        <v>60340.398437999997</v>
       </c>
       <c r="Q17" s="1">
         <v>16.761222</v>
       </c>
       <c r="R17" s="1">
-        <v>948.463000</v>
+        <v>948.46299999999997</v>
       </c>
       <c r="S17" s="1">
-        <v>-102.551000</v>
+        <v>-102.551</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>60351.212211</v>
+        <v>60351.212210999998</v>
       </c>
       <c r="V17" s="1">
-        <v>16.764226</v>
+        <v>16.764226000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>954.834000</v>
+        <v>954.83399999999995</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.299600</v>
+        <v>-89.299599999999998</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>60361.701078</v>
+        <v>60361.701077999998</v>
       </c>
       <c r="AA17" s="1">
         <v>16.767139</v>
       </c>
       <c r="AB17" s="1">
-        <v>962.166000</v>
+        <v>962.16600000000005</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.335300</v>
+        <v>-80.335300000000004</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>60372.183559</v>
+        <v>60372.183558999997</v>
       </c>
       <c r="AF17" s="1">
-        <v>16.770051</v>
+        <v>16.770050999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>967.214000</v>
+        <v>967.21400000000006</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.092300</v>
+        <v>-80.092299999999994</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>60383.038475</v>
+        <v>60383.038475000001</v>
       </c>
       <c r="AK17" s="1">
         <v>16.773066</v>
       </c>
       <c r="AL17" s="1">
-        <v>975.278000</v>
+        <v>975.27800000000002</v>
       </c>
       <c r="AM17" s="1">
-        <v>-88.056500</v>
+        <v>-88.0565</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>60393.865150</v>
+        <v>60393.865149999998</v>
       </c>
       <c r="AP17" s="1">
-        <v>16.776074</v>
+        <v>16.776074000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>984.617000</v>
+        <v>984.61699999999996</v>
       </c>
       <c r="AR17" s="1">
-        <v>-103.215000</v>
+        <v>-103.215</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>60405.033565</v>
+        <v>60405.033564999998</v>
       </c>
       <c r="AU17" s="1">
         <v>16.779176</v>
       </c>
       <c r="AV17" s="1">
-        <v>996.209000</v>
+        <v>996.20899999999995</v>
       </c>
       <c r="AW17" s="1">
-        <v>-124.909000</v>
+        <v>-124.90900000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>60415.645966</v>
+        <v>60415.645965999996</v>
       </c>
       <c r="AZ17" s="1">
         <v>16.782124</v>
       </c>
       <c r="BA17" s="1">
-        <v>1006.000000</v>
+        <v>1006</v>
       </c>
       <c r="BB17" s="1">
-        <v>-143.763000</v>
+        <v>-143.76300000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>60426.678976</v>
+        <v>60426.678976000003</v>
       </c>
       <c r="BE17" s="1">
-        <v>16.785189</v>
+        <v>16.785188999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1052.060000</v>
+        <v>1052.06</v>
       </c>
       <c r="BG17" s="1">
-        <v>-228.749000</v>
+        <v>-228.749</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>60437.546359</v>
@@ -4516,634 +4932,634 @@
         <v>16.788207</v>
       </c>
       <c r="BK17" s="1">
-        <v>1132.520000</v>
+        <v>1132.52</v>
       </c>
       <c r="BL17" s="1">
-        <v>-364.370000</v>
+        <v>-364.37</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>60448.555028</v>
+        <v>60448.555028000002</v>
       </c>
       <c r="BO17" s="1">
-        <v>16.791265</v>
+        <v>16.791264999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1264.970000</v>
+        <v>1264.97</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-573.158000</v>
+        <v>-573.15800000000002</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>60459.712072</v>
+        <v>60459.712072000002</v>
       </c>
       <c r="BT17" s="1">
-        <v>16.794364</v>
+        <v>16.794364000000002</v>
       </c>
       <c r="BU17" s="1">
-        <v>1413.490000</v>
+        <v>1413.49</v>
       </c>
       <c r="BV17" s="1">
-        <v>-795.718000</v>
+        <v>-795.71799999999996</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>60470.492383</v>
+        <v>60470.492382999997</v>
       </c>
       <c r="BY17" s="1">
         <v>16.797359</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1575.110000</v>
+        <v>1575.11</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1027.180000</v>
+        <v>-1027.18</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>60483.032438</v>
+        <v>60483.032438000002</v>
       </c>
       <c r="CD17" s="1">
-        <v>16.800842</v>
+        <v>16.800841999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>1982.870000</v>
+        <v>1982.87</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1568.900000</v>
+        <v>-1568.9</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>60309.191147</v>
+        <v>60309.191146999998</v>
       </c>
       <c r="B18" s="1">
-        <v>16.752553</v>
+        <v>16.752552999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>904.758000</v>
+        <v>904.75800000000004</v>
       </c>
       <c r="D18" s="1">
-        <v>-192.970000</v>
+        <v>-192.97</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>60319.670588</v>
+        <v>60319.670588000001</v>
       </c>
       <c r="G18" s="1">
         <v>16.755464</v>
       </c>
       <c r="H18" s="1">
-        <v>920.836000</v>
+        <v>920.83600000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-163.430000</v>
+        <v>-163.43</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>60329.856968</v>
       </c>
       <c r="L18" s="1">
-        <v>16.758294</v>
+        <v>16.758293999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>942.155000</v>
+        <v>942.15499999999997</v>
       </c>
       <c r="N18" s="1">
-        <v>-117.442000</v>
+        <v>-117.44199999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>60340.747585</v>
+        <v>60340.747584999997</v>
       </c>
       <c r="Q18" s="1">
         <v>16.761319</v>
       </c>
       <c r="R18" s="1">
-        <v>948.524000</v>
+        <v>948.524</v>
       </c>
       <c r="S18" s="1">
-        <v>-102.530000</v>
+        <v>-102.53</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>60351.559875</v>
+        <v>60351.559874999999</v>
       </c>
       <c r="V18" s="1">
         <v>16.764322</v>
       </c>
       <c r="W18" s="1">
-        <v>954.843000</v>
+        <v>954.84299999999996</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.362400</v>
+        <v>-89.362399999999994</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>60362.048805</v>
+        <v>60362.048804999999</v>
       </c>
       <c r="AA18" s="1">
         <v>16.767236</v>
       </c>
       <c r="AB18" s="1">
-        <v>962.164000</v>
+        <v>962.16399999999999</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.249000</v>
+        <v>-80.248999999999995</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>60372.846190</v>
+        <v>60372.846189999997</v>
       </c>
       <c r="AF18" s="1">
         <v>16.770235</v>
       </c>
       <c r="AG18" s="1">
-        <v>967.218000</v>
+        <v>967.21799999999996</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.068700</v>
+        <v>-80.068700000000007</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>60383.424858</v>
+        <v>60383.424857999998</v>
       </c>
       <c r="AK18" s="1">
-        <v>16.773174</v>
+        <v>16.773174000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>975.299000</v>
+        <v>975.29899999999998</v>
       </c>
       <c r="AM18" s="1">
-        <v>-88.062700</v>
+        <v>-88.062700000000007</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>60394.262483</v>
+        <v>60394.262482999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>16.776184</v>
+        <v>16.776184000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>984.599000</v>
+        <v>984.59900000000005</v>
       </c>
       <c r="AR18" s="1">
-        <v>-103.181000</v>
+        <v>-103.181</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>60405.397131</v>
+        <v>60405.397130999998</v>
       </c>
       <c r="AU18" s="1">
         <v>16.779277</v>
       </c>
       <c r="AV18" s="1">
-        <v>996.200000</v>
+        <v>996.2</v>
       </c>
       <c r="AW18" s="1">
-        <v>-124.935000</v>
+        <v>-124.935</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>60416.005071</v>
       </c>
       <c r="AZ18" s="1">
-        <v>16.782224</v>
+        <v>16.782223999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1006.010000</v>
+        <v>1006.01</v>
       </c>
       <c r="BB18" s="1">
-        <v>-143.762000</v>
+        <v>-143.762</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>60427.040098</v>
+        <v>60427.040097999998</v>
       </c>
       <c r="BE18" s="1">
-        <v>16.785289</v>
+        <v>16.785288999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1052.070000</v>
+        <v>1052.07</v>
       </c>
       <c r="BG18" s="1">
-        <v>-228.740000</v>
+        <v>-228.74</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>60437.970896</v>
+        <v>60437.970895999999</v>
       </c>
       <c r="BJ18" s="1">
         <v>16.788325</v>
       </c>
       <c r="BK18" s="1">
-        <v>1132.550000</v>
+        <v>1132.55</v>
       </c>
       <c r="BL18" s="1">
-        <v>-364.343000</v>
+        <v>-364.34300000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>60448.726182</v>
+        <v>60448.726181999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>16.791313</v>
+        <v>16.791312999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1264.970000</v>
+        <v>1264.97</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-573.175000</v>
+        <v>-573.17499999999995</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>60460.128179</v>
+        <v>60460.128178999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>16.794480</v>
+        <v>16.79448</v>
       </c>
       <c r="BU18" s="1">
-        <v>1413.550000</v>
+        <v>1413.55</v>
       </c>
       <c r="BV18" s="1">
-        <v>-795.674000</v>
+        <v>-795.67399999999998</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>60470.918646</v>
+        <v>60470.918645999998</v>
       </c>
       <c r="BY18" s="1">
-        <v>16.797477</v>
+        <v>16.797477000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1575.110000</v>
+        <v>1575.11</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1027.420000</v>
+        <v>-1027.42</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>60483.577540</v>
+        <v>60483.577539999998</v>
       </c>
       <c r="CD18" s="1">
-        <v>16.800994</v>
+        <v>16.800993999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>1982.090000</v>
+        <v>1982.09</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1568.230000</v>
+        <v>-1568.23</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>60309.873353</v>
+        <v>60309.873353000003</v>
       </c>
       <c r="B19" s="1">
-        <v>16.752743</v>
+        <v>16.752742999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>904.636000</v>
+        <v>904.63599999999997</v>
       </c>
       <c r="D19" s="1">
-        <v>-192.910000</v>
+        <v>-192.91</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>60320.014846</v>
+        <v>60320.014845999998</v>
       </c>
       <c r="G19" s="1">
-        <v>16.755560</v>
+        <v>16.755559999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>921.180000</v>
+        <v>921.18</v>
       </c>
       <c r="I19" s="1">
-        <v>-163.245000</v>
+        <v>-163.245</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>60330.205119</v>
+        <v>60330.205118999998</v>
       </c>
       <c r="L19" s="1">
-        <v>16.758390</v>
+        <v>16.758389999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>942.219000</v>
+        <v>942.21900000000005</v>
       </c>
       <c r="N19" s="1">
-        <v>-117.449000</v>
+        <v>-117.449</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>60341.094822</v>
+        <v>60341.094821999999</v>
       </c>
       <c r="Q19" s="1">
         <v>16.761415</v>
       </c>
       <c r="R19" s="1">
-        <v>948.541000</v>
+        <v>948.54100000000005</v>
       </c>
       <c r="S19" s="1">
-        <v>-102.572000</v>
+        <v>-102.572</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>60352.210663</v>
+        <v>60352.210662999998</v>
       </c>
       <c r="V19" s="1">
-        <v>16.764503</v>
+        <v>16.764503000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>954.793000</v>
+        <v>954.79300000000001</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.353700</v>
+        <v>-89.353700000000003</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>60362.719896</v>
+        <v>60362.719896000002</v>
       </c>
       <c r="AA19" s="1">
         <v>16.767422</v>
       </c>
       <c r="AB19" s="1">
-        <v>962.190000</v>
+        <v>962.19</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.293600</v>
+        <v>-80.293599999999998</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>60373.220695</v>
+        <v>60373.220695000004</v>
       </c>
       <c r="AF19" s="1">
         <v>16.770339</v>
       </c>
       <c r="AG19" s="1">
-        <v>967.197000</v>
+        <v>967.197</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.081300</v>
+        <v>-80.081299999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>60383.771591</v>
+        <v>60383.771590999997</v>
       </c>
       <c r="AK19" s="1">
-        <v>16.773270</v>
+        <v>16.77327</v>
       </c>
       <c r="AL19" s="1">
-        <v>975.275000</v>
+        <v>975.27499999999998</v>
       </c>
       <c r="AM19" s="1">
-        <v>-88.056300</v>
+        <v>-88.056299999999993</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>60394.648329</v>
+        <v>60394.648329000003</v>
       </c>
       <c r="AP19" s="1">
-        <v>16.776291</v>
+        <v>16.776291000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>984.633000</v>
+        <v>984.63300000000004</v>
       </c>
       <c r="AR19" s="1">
-        <v>-103.203000</v>
+        <v>-103.203</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>60405.762217</v>
+        <v>60405.762217000003</v>
       </c>
       <c r="AU19" s="1">
-        <v>16.779378</v>
+        <v>16.779378000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>996.207000</v>
+        <v>996.20699999999999</v>
       </c>
       <c r="AW19" s="1">
-        <v>-124.911000</v>
+        <v>-124.911</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>60416.431134</v>
+        <v>60416.431133999999</v>
       </c>
       <c r="AZ19" s="1">
         <v>16.782342</v>
       </c>
       <c r="BA19" s="1">
-        <v>1005.990000</v>
+        <v>1005.99</v>
       </c>
       <c r="BB19" s="1">
-        <v>-143.784000</v>
+        <v>-143.78399999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>60427.475552</v>
+        <v>60427.475552000004</v>
       </c>
       <c r="BE19" s="1">
-        <v>16.785410</v>
+        <v>16.785409999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1052.090000</v>
+        <v>1052.0899999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-228.745000</v>
+        <v>-228.745</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>60438.317137</v>
+        <v>60438.317136999998</v>
       </c>
       <c r="BJ19" s="1">
         <v>16.788421</v>
       </c>
       <c r="BK19" s="1">
-        <v>1132.550000</v>
+        <v>1132.55</v>
       </c>
       <c r="BL19" s="1">
-        <v>-364.388000</v>
+        <v>-364.38799999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>60449.123940</v>
+        <v>60449.123939999998</v>
       </c>
       <c r="BO19" s="1">
-        <v>16.791423</v>
+        <v>16.791423000000002</v>
       </c>
       <c r="BP19" s="1">
-        <v>1264.960000</v>
+        <v>1264.96</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-573.173000</v>
+        <v>-573.173</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>60460.559878</v>
       </c>
       <c r="BT19" s="1">
-        <v>16.794600</v>
+        <v>16.794599999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1413.540000</v>
+        <v>1413.54</v>
       </c>
       <c r="BV19" s="1">
-        <v>-795.671000</v>
+        <v>-795.67100000000005</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>60471.335813</v>
+        <v>60471.335812999998</v>
       </c>
       <c r="BY19" s="1">
-        <v>16.797593</v>
+        <v>16.797592999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1575.300000</v>
+        <v>1575.3</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1027.270000</v>
+        <v>-1027.27</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>60484.110739</v>
+        <v>60484.110739000003</v>
       </c>
       <c r="CD19" s="1">
-        <v>16.801142</v>
+        <v>16.801141999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>1983.640000</v>
+        <v>1983.64</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1568.270000</v>
+        <v>-1568.27</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>60310.215883</v>
+        <v>60310.215882999997</v>
       </c>
       <c r="B20" s="1">
-        <v>16.752838</v>
+        <v>16.752838000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>904.729000</v>
+        <v>904.72900000000004</v>
       </c>
       <c r="D20" s="1">
-        <v>-193.010000</v>
+        <v>-193.01</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>60320.361517</v>
+        <v>60320.361516999998</v>
       </c>
       <c r="G20" s="1">
-        <v>16.755656</v>
+        <v>16.755655999999998</v>
       </c>
       <c r="H20" s="1">
-        <v>921.071000</v>
+        <v>921.07100000000003</v>
       </c>
       <c r="I20" s="1">
-        <v>-163.364000</v>
+        <v>-163.364</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>60330.547395</v>
+        <v>60330.547395000001</v>
       </c>
       <c r="L20" s="1">
         <v>16.758485</v>
       </c>
       <c r="M20" s="1">
-        <v>942.185000</v>
+        <v>942.18499999999995</v>
       </c>
       <c r="N20" s="1">
-        <v>-117.360000</v>
+        <v>-117.36</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>60341.765903</v>
@@ -5152,1585 +5568,1585 @@
         <v>16.761602</v>
       </c>
       <c r="R20" s="1">
-        <v>948.532000</v>
+        <v>948.53200000000004</v>
       </c>
       <c r="S20" s="1">
-        <v>-102.606000</v>
+        <v>-102.60599999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>60352.586312</v>
+        <v>60352.586311999999</v>
       </c>
       <c r="V20" s="1">
-        <v>16.764607</v>
+        <v>16.764607000000002</v>
       </c>
       <c r="W20" s="1">
-        <v>954.914000</v>
+        <v>954.91399999999999</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.325100</v>
+        <v>-89.325100000000006</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>60363.093843</v>
+        <v>60363.093843000002</v>
       </c>
       <c r="AA20" s="1">
         <v>16.767526</v>
       </c>
       <c r="AB20" s="1">
-        <v>962.143000</v>
+        <v>962.14300000000003</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.240300</v>
+        <v>-80.240300000000005</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>60373.567863</v>
+        <v>60373.567862999997</v>
       </c>
       <c r="AF20" s="1">
         <v>16.770436</v>
       </c>
       <c r="AG20" s="1">
-        <v>967.199000</v>
+        <v>967.19899999999996</v>
       </c>
       <c r="AH20" s="1">
-        <v>-80.078200</v>
+        <v>-80.078199999999995</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>60384.119256</v>
+        <v>60384.119255999998</v>
       </c>
       <c r="AK20" s="1">
-        <v>16.773366</v>
+        <v>16.773365999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>975.267000</v>
+        <v>975.26700000000005</v>
       </c>
       <c r="AM20" s="1">
-        <v>-88.040500</v>
+        <v>-88.040499999999994</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>60395.006937</v>
+        <v>60395.006936999998</v>
       </c>
       <c r="AP20" s="1">
         <v>16.776391</v>
       </c>
       <c r="AQ20" s="1">
-        <v>984.614000</v>
+        <v>984.61400000000003</v>
       </c>
       <c r="AR20" s="1">
-        <v>-103.194000</v>
+        <v>-103.194</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>60406.188283</v>
+        <v>60406.188283000003</v>
       </c>
       <c r="AU20" s="1">
-        <v>16.779497</v>
+        <v>16.779496999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>996.190000</v>
+        <v>996.19</v>
       </c>
       <c r="AW20" s="1">
-        <v>-124.926000</v>
+        <v>-124.926</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>60416.724304</v>
+        <v>60416.724304000003</v>
       </c>
       <c r="AZ20" s="1">
-        <v>16.782423</v>
+        <v>16.782423000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1006.010000</v>
+        <v>1006.01</v>
       </c>
       <c r="BB20" s="1">
-        <v>-143.761000</v>
+        <v>-143.761</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>60427.763231</v>
+        <v>60427.763230999997</v>
       </c>
       <c r="BE20" s="1">
-        <v>16.785490</v>
+        <v>16.785489999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1052.050000</v>
+        <v>1052.05</v>
       </c>
       <c r="BG20" s="1">
-        <v>-228.756000</v>
+        <v>-228.756</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>60438.691087</v>
+        <v>60438.691086999999</v>
       </c>
       <c r="BJ20" s="1">
         <v>16.788525</v>
       </c>
       <c r="BK20" s="1">
-        <v>1132.580000</v>
+        <v>1132.58</v>
       </c>
       <c r="BL20" s="1">
-        <v>-364.351000</v>
+        <v>-364.351</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>60449.547025</v>
       </c>
       <c r="BO20" s="1">
-        <v>16.791541</v>
+        <v>16.791540999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1264.980000</v>
+        <v>1264.98</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-573.198000</v>
+        <v>-573.19799999999998</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>60460.971411</v>
+        <v>60460.971410999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>16.794714</v>
+        <v>16.794713999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1413.520000</v>
+        <v>1413.52</v>
       </c>
       <c r="BV20" s="1">
-        <v>-795.732000</v>
+        <v>-795.73199999999997</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>60471.783705</v>
+        <v>60471.783705000002</v>
       </c>
       <c r="BY20" s="1">
         <v>16.797718</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1575.070000</v>
+        <v>1575.07</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1027.260000</v>
+        <v>-1027.26</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>60484.624595</v>
+        <v>60484.624595000001</v>
       </c>
       <c r="CD20" s="1">
         <v>16.801285</v>
       </c>
       <c r="CE20" s="1">
-        <v>1983.120000</v>
+        <v>1983.12</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1566.570000</v>
+        <v>-1566.57</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>60310.555146</v>
+        <v>60310.555145999999</v>
       </c>
       <c r="B21" s="1">
-        <v>16.752932</v>
+        <v>16.752932000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>904.596000</v>
+        <v>904.596</v>
       </c>
       <c r="D21" s="1">
-        <v>-193.041000</v>
+        <v>-193.041</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>60321.015244</v>
+        <v>60321.015244000002</v>
       </c>
       <c r="G21" s="1">
-        <v>16.755838</v>
+        <v>16.755838000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>920.893000</v>
+        <v>920.89300000000003</v>
       </c>
       <c r="I21" s="1">
-        <v>-163.850000</v>
+        <v>-163.85</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>60331.222415</v>
+        <v>60331.222414999997</v>
       </c>
       <c r="L21" s="1">
-        <v>16.758673</v>
+        <v>16.758673000000002</v>
       </c>
       <c r="M21" s="1">
-        <v>942.168000</v>
+        <v>942.16800000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-117.470000</v>
+        <v>-117.47</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>60342.140383</v>
+        <v>60342.140382999998</v>
       </c>
       <c r="Q21" s="1">
         <v>16.761706</v>
       </c>
       <c r="R21" s="1">
-        <v>948.484000</v>
+        <v>948.48400000000004</v>
       </c>
       <c r="S21" s="1">
-        <v>-102.631000</v>
+        <v>-102.631</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>60352.929826</v>
       </c>
       <c r="V21" s="1">
-        <v>16.764703</v>
+        <v>16.764703000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>954.927000</v>
+        <v>954.92700000000002</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.273300</v>
+        <v>-89.273300000000006</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>60363.441044</v>
+        <v>60363.441043999999</v>
       </c>
       <c r="AA21" s="1">
         <v>16.767623</v>
       </c>
       <c r="AB21" s="1">
-        <v>962.098000</v>
+        <v>962.09799999999996</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.241700</v>
+        <v>-80.241699999999994</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>60373.909109</v>
       </c>
       <c r="AF21" s="1">
-        <v>16.770530</v>
+        <v>16.770530000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>967.179000</v>
+        <v>967.17899999999997</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.057300</v>
+        <v>-80.057299999999998</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>60384.539367</v>
+        <v>60384.539366999998</v>
       </c>
       <c r="AK21" s="1">
-        <v>16.773483</v>
+        <v>16.773482999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>975.257000</v>
+        <v>975.25699999999995</v>
       </c>
       <c r="AM21" s="1">
-        <v>-88.049500</v>
+        <v>-88.049499999999995</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>60395.435977</v>
+        <v>60395.435977000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>16.776510</v>
+        <v>16.776509999999998</v>
       </c>
       <c r="AQ21" s="1">
-        <v>984.602000</v>
+        <v>984.60199999999998</v>
       </c>
       <c r="AR21" s="1">
-        <v>-103.206000</v>
+        <v>-103.206</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>60406.489819</v>
+        <v>60406.489819000002</v>
       </c>
       <c r="AU21" s="1">
         <v>16.779581</v>
       </c>
       <c r="AV21" s="1">
-        <v>996.202000</v>
+        <v>996.202</v>
       </c>
       <c r="AW21" s="1">
-        <v>-124.922000</v>
+        <v>-124.922</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>60417.082417</v>
+        <v>60417.082416999998</v>
       </c>
       <c r="AZ21" s="1">
-        <v>16.782523</v>
+        <v>16.782523000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1006.010000</v>
+        <v>1006.01</v>
       </c>
       <c r="BB21" s="1">
-        <v>-143.766000</v>
+        <v>-143.76599999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>60428.121374</v>
+        <v>60428.121374000002</v>
       </c>
       <c r="BE21" s="1">
-        <v>16.785589</v>
+        <v>16.785589000000002</v>
       </c>
       <c r="BF21" s="1">
-        <v>1052.060000</v>
+        <v>1052.06</v>
       </c>
       <c r="BG21" s="1">
-        <v>-228.745000</v>
+        <v>-228.745</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>60439.070031</v>
+        <v>60439.070031000003</v>
       </c>
       <c r="BJ21" s="1">
-        <v>16.788631</v>
+        <v>16.788630999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1132.560000</v>
+        <v>1132.56</v>
       </c>
       <c r="BL21" s="1">
-        <v>-364.363000</v>
+        <v>-364.363</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>60450.367408</v>
+        <v>60450.367407999998</v>
       </c>
       <c r="BO21" s="1">
-        <v>16.791769</v>
+        <v>16.791768999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1264.980000</v>
+        <v>1264.98</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-573.122000</v>
+        <v>-573.12199999999996</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>60461.399921</v>
+        <v>60461.399920999997</v>
       </c>
       <c r="BT21" s="1">
-        <v>16.794833</v>
+        <v>16.794833000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1413.540000</v>
+        <v>1413.54</v>
       </c>
       <c r="BV21" s="1">
-        <v>-795.736000</v>
+        <v>-795.73599999999999</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>60472.204308</v>
       </c>
       <c r="BY21" s="1">
-        <v>16.797835</v>
+        <v>16.797834999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1574.990000</v>
+        <v>1574.99</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1027.300000</v>
+        <v>-1027.3</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>60485.142915</v>
+        <v>60485.142914999997</v>
       </c>
       <c r="CD21" s="1">
-        <v>16.801429</v>
+        <v>16.801428999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>1981.820000</v>
+        <v>1981.82</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1567.090000</v>
+        <v>-1567.09</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>60311.215816</v>
+        <v>60311.215816000004</v>
       </c>
       <c r="B22" s="1">
-        <v>16.753116</v>
+        <v>16.753115999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>904.824000</v>
+        <v>904.82399999999996</v>
       </c>
       <c r="D22" s="1">
-        <v>-193.045000</v>
+        <v>-193.04499999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>60321.395178</v>
+        <v>60321.395177999999</v>
       </c>
       <c r="G22" s="1">
-        <v>16.755943</v>
+        <v>16.755942999999998</v>
       </c>
       <c r="H22" s="1">
-        <v>920.511000</v>
+        <v>920.51099999999997</v>
       </c>
       <c r="I22" s="1">
-        <v>-163.571000</v>
+        <v>-163.571</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>60331.586975</v>
+        <v>60331.586974999998</v>
       </c>
       <c r="L22" s="1">
-        <v>16.758774</v>
+        <v>16.758773999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>942.220000</v>
+        <v>942.22</v>
       </c>
       <c r="N22" s="1">
-        <v>-117.409000</v>
+        <v>-117.40900000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>60342.488577</v>
+        <v>60342.488576999996</v>
       </c>
       <c r="Q22" s="1">
-        <v>16.761802</v>
+        <v>16.761801999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>948.468000</v>
+        <v>948.46799999999996</v>
       </c>
       <c r="S22" s="1">
-        <v>-102.598000</v>
+        <v>-102.598</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>60353.277520</v>
+        <v>60353.277520000003</v>
       </c>
       <c r="V22" s="1">
         <v>16.764799</v>
       </c>
       <c r="W22" s="1">
-        <v>954.843000</v>
+        <v>954.84299999999996</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.351500</v>
+        <v>-89.351500000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>60363.794692</v>
+        <v>60363.794692000003</v>
       </c>
       <c r="AA22" s="1">
-        <v>16.767721</v>
+        <v>16.767721000000002</v>
       </c>
       <c r="AB22" s="1">
-        <v>962.174000</v>
+        <v>962.17399999999998</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.245300</v>
+        <v>-80.2453</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>60374.327769</v>
+        <v>60374.327769000003</v>
       </c>
       <c r="AF22" s="1">
         <v>16.770647</v>
       </c>
       <c r="AG22" s="1">
-        <v>967.168000</v>
+        <v>967.16800000000001</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.033100</v>
+        <v>-80.033100000000005</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>60384.816840</v>
+        <v>60384.81684</v>
       </c>
       <c r="AK22" s="1">
-        <v>16.773560</v>
+        <v>16.77356</v>
       </c>
       <c r="AL22" s="1">
-        <v>975.286000</v>
+        <v>975.28599999999994</v>
       </c>
       <c r="AM22" s="1">
-        <v>-88.070100</v>
+        <v>-88.070099999999996</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>60395.728152</v>
+        <v>60395.728152000003</v>
       </c>
       <c r="AP22" s="1">
         <v>16.776591</v>
       </c>
       <c r="AQ22" s="1">
-        <v>984.611000</v>
+        <v>984.61099999999999</v>
       </c>
       <c r="AR22" s="1">
-        <v>-103.190000</v>
+        <v>-103.19</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>60406.855371</v>
+        <v>60406.855370999998</v>
       </c>
       <c r="AU22" s="1">
-        <v>16.779682</v>
+        <v>16.779682000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>996.190000</v>
+        <v>996.19</v>
       </c>
       <c r="AW22" s="1">
-        <v>-124.929000</v>
+        <v>-124.929</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>60417.437517</v>
+        <v>60417.437516999998</v>
       </c>
       <c r="AZ22" s="1">
         <v>16.782622</v>
       </c>
       <c r="BA22" s="1">
-        <v>1006.000000</v>
+        <v>1006</v>
       </c>
       <c r="BB22" s="1">
-        <v>-143.788000</v>
+        <v>-143.78800000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>60428.483949</v>
+        <v>60428.483949000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>16.785690</v>
+        <v>16.785689999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1052.080000</v>
+        <v>1052.08</v>
       </c>
       <c r="BG22" s="1">
-        <v>-228.746000</v>
+        <v>-228.74600000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>60439.821470</v>
+        <v>60439.821470000003</v>
       </c>
       <c r="BJ22" s="1">
-        <v>16.788839</v>
+        <v>16.788838999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1132.570000</v>
+        <v>1132.57</v>
       </c>
       <c r="BL22" s="1">
-        <v>-364.360000</v>
+        <v>-364.36</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>60450.784047</v>
+        <v>60450.784047000001</v>
       </c>
       <c r="BO22" s="1">
         <v>16.791884</v>
       </c>
       <c r="BP22" s="1">
-        <v>1265.000000</v>
+        <v>1265</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-573.139000</v>
+        <v>-573.13900000000001</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>60461.828993</v>
+        <v>60461.828993000003</v>
       </c>
       <c r="BT22" s="1">
-        <v>16.794952</v>
+        <v>16.794951999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1413.550000</v>
+        <v>1413.55</v>
       </c>
       <c r="BV22" s="1">
-        <v>-795.723000</v>
+        <v>-795.72299999999996</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>60472.626370</v>
+        <v>60472.626369999998</v>
       </c>
       <c r="BY22" s="1">
-        <v>16.797952</v>
+        <v>16.797951999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1575.110000</v>
+        <v>1575.11</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1027.240000</v>
+        <v>-1027.24</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>60485.970273</v>
+        <v>60485.970272999999</v>
       </c>
       <c r="CD22" s="1">
         <v>16.801658</v>
       </c>
       <c r="CE22" s="1">
-        <v>1982.050000</v>
+        <v>1982.05</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1568.700000</v>
+        <v>-1568.7</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>60311.580841</v>
+        <v>60311.580841000003</v>
       </c>
       <c r="B23" s="1">
-        <v>16.753217</v>
+        <v>16.753216999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>904.740000</v>
+        <v>904.74</v>
       </c>
       <c r="D23" s="1">
-        <v>-192.919000</v>
+        <v>-192.91900000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>60321.738410</v>
+        <v>60321.738409999998</v>
       </c>
       <c r="G23" s="1">
         <v>16.756038</v>
       </c>
       <c r="H23" s="1">
-        <v>921.069000</v>
+        <v>921.06899999999996</v>
       </c>
       <c r="I23" s="1">
-        <v>-163.525000</v>
+        <v>-163.52500000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>60331.930205</v>
+        <v>60331.930204999997</v>
       </c>
       <c r="L23" s="1">
-        <v>16.758870</v>
+        <v>16.758870000000002</v>
       </c>
       <c r="M23" s="1">
-        <v>942.313000</v>
+        <v>942.31299999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-117.569000</v>
+        <v>-117.569</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>60342.840207</v>
+        <v>60342.840207000001</v>
       </c>
       <c r="Q23" s="1">
-        <v>16.761900</v>
+        <v>16.761900000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>948.497000</v>
+        <v>948.49699999999996</v>
       </c>
       <c r="S23" s="1">
-        <v>-102.548000</v>
+        <v>-102.548</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>60353.701600</v>
+        <v>60353.7016</v>
       </c>
       <c r="V23" s="1">
-        <v>16.764917</v>
+        <v>16.764917000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>954.888000</v>
+        <v>954.88800000000003</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.394100</v>
+        <v>-89.394099999999995</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>60364.222737</v>
+        <v>60364.222736999996</v>
       </c>
       <c r="AA23" s="1">
-        <v>16.767840</v>
+        <v>16.76784</v>
       </c>
       <c r="AB23" s="1">
-        <v>962.116000</v>
+        <v>962.11599999999999</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.224700</v>
+        <v>-80.224699999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>60374.609956</v>
       </c>
       <c r="AF23" s="1">
-        <v>16.770725</v>
+        <v>16.770724999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>967.235000</v>
+        <v>967.23500000000001</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.064700</v>
+        <v>-80.064700000000002</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>60385.168294</v>
+        <v>60385.168294000003</v>
       </c>
       <c r="AK23" s="1">
-        <v>16.773658</v>
+        <v>16.773658000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>975.259000</v>
+        <v>975.25900000000001</v>
       </c>
       <c r="AM23" s="1">
-        <v>-88.062300</v>
+        <v>-88.062299999999993</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>60396.087260</v>
+        <v>60396.08726</v>
       </c>
       <c r="AP23" s="1">
         <v>16.776691</v>
       </c>
       <c r="AQ23" s="1">
-        <v>984.632000</v>
+        <v>984.63199999999995</v>
       </c>
       <c r="AR23" s="1">
-        <v>-103.191000</v>
+        <v>-103.191</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>60407.220457</v>
+        <v>60407.220457000003</v>
       </c>
       <c r="AU23" s="1">
-        <v>16.779783</v>
+        <v>16.779782999999998</v>
       </c>
       <c r="AV23" s="1">
-        <v>996.183000</v>
+        <v>996.18299999999999</v>
       </c>
       <c r="AW23" s="1">
-        <v>-124.922000</v>
+        <v>-124.922</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>60418.158700</v>
+        <v>60418.1587</v>
       </c>
       <c r="AZ23" s="1">
-        <v>16.782822</v>
+        <v>16.782821999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1006.000000</v>
+        <v>1006</v>
       </c>
       <c r="BB23" s="1">
-        <v>-143.774000</v>
+        <v>-143.774</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>60429.205597</v>
       </c>
       <c r="BE23" s="1">
-        <v>16.785890</v>
+        <v>16.785889999999998</v>
       </c>
       <c r="BF23" s="1">
-        <v>1052.080000</v>
+        <v>1052.08</v>
       </c>
       <c r="BG23" s="1">
-        <v>-228.736000</v>
+        <v>-228.73599999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>60440.193965</v>
+        <v>60440.193964999999</v>
       </c>
       <c r="BJ23" s="1">
         <v>16.788943</v>
       </c>
       <c r="BK23" s="1">
-        <v>1132.520000</v>
+        <v>1132.52</v>
       </c>
       <c r="BL23" s="1">
-        <v>-364.361000</v>
+        <v>-364.36099999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>60451.177871</v>
       </c>
       <c r="BO23" s="1">
-        <v>16.791994</v>
+        <v>16.791993999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1264.950000</v>
+        <v>1264.95</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-573.177000</v>
+        <v>-573.17700000000002</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>60462.238162</v>
+        <v>60462.238162000001</v>
       </c>
       <c r="BT23" s="1">
-        <v>16.795066</v>
+        <v>16.795065999999998</v>
       </c>
       <c r="BU23" s="1">
-        <v>1413.450000</v>
+        <v>1413.45</v>
       </c>
       <c r="BV23" s="1">
-        <v>-795.728000</v>
+        <v>-795.72799999999995</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>60473.398177</v>
+        <v>60473.398177000003</v>
       </c>
       <c r="BY23" s="1">
-        <v>16.798166</v>
+        <v>16.798165999999998</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1575.140000</v>
+        <v>1575.14</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1027.370000</v>
+        <v>-1027.3699999999999</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>60486.180546</v>
+        <v>60486.180546000003</v>
       </c>
       <c r="CD23" s="1">
         <v>16.801717</v>
       </c>
       <c r="CE23" s="1">
-        <v>1983.480000</v>
+        <v>1983.48</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1567.710000</v>
+        <v>-1567.71</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>60311.927049</v>
+        <v>60311.927048999998</v>
       </c>
       <c r="B24" s="1">
-        <v>16.753313</v>
+        <v>16.753312999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>904.774000</v>
+        <v>904.774</v>
       </c>
       <c r="D24" s="1">
-        <v>-192.914000</v>
+        <v>-192.91399999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>60322.082674</v>
+        <v>60322.082673999997</v>
       </c>
       <c r="G24" s="1">
-        <v>16.756134</v>
+        <v>16.756133999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>920.916000</v>
+        <v>920.91600000000005</v>
       </c>
       <c r="I24" s="1">
-        <v>-163.719000</v>
+        <v>-163.71899999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>60332.535351</v>
+        <v>60332.535350999999</v>
       </c>
       <c r="L24" s="1">
         <v>16.759038</v>
       </c>
       <c r="M24" s="1">
-        <v>942.230000</v>
+        <v>942.23</v>
       </c>
       <c r="N24" s="1">
-        <v>-117.571000</v>
+        <v>-117.571</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>60343.264318</v>
+        <v>60343.264318000001</v>
       </c>
       <c r="Q24" s="1">
-        <v>16.762018</v>
+        <v>16.762018000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>948.488000</v>
+        <v>948.48800000000006</v>
       </c>
       <c r="S24" s="1">
-        <v>-102.570000</v>
+        <v>-102.57</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>60353.967455</v>
+        <v>60353.967454999998</v>
       </c>
       <c r="V24" s="1">
-        <v>16.764991</v>
+        <v>16.764990999999998</v>
       </c>
       <c r="W24" s="1">
-        <v>954.742000</v>
+        <v>954.74199999999996</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.263400</v>
+        <v>-89.263400000000004</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>60364.496035</v>
+        <v>60364.496034999996</v>
       </c>
       <c r="AA24" s="1">
         <v>16.767916</v>
       </c>
       <c r="AB24" s="1">
-        <v>962.144000</v>
+        <v>962.14400000000001</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.319100</v>
+        <v>-80.319100000000006</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>60374.952692</v>
+        <v>60374.952691999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>16.770820</v>
+        <v>16.770820000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>967.225000</v>
+        <v>967.22500000000002</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.041900</v>
+        <v>-80.041899999999998</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>60385.514998</v>
+        <v>60385.514997999999</v>
       </c>
       <c r="AK24" s="1">
         <v>16.773754</v>
       </c>
       <c r="AL24" s="1">
-        <v>975.276000</v>
+        <v>975.27599999999995</v>
       </c>
       <c r="AM24" s="1">
-        <v>-88.069800</v>
+        <v>-88.069800000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>60396.449305</v>
+        <v>60396.449305000002</v>
       </c>
       <c r="AP24" s="1">
-        <v>16.776791</v>
+        <v>16.776790999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>984.625000</v>
+        <v>984.625</v>
       </c>
       <c r="AR24" s="1">
-        <v>-103.197000</v>
+        <v>-103.197</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>60407.958509</v>
+        <v>60407.958508999996</v>
       </c>
       <c r="AU24" s="1">
-        <v>16.779988</v>
+        <v>16.779987999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>996.201000</v>
+        <v>996.20100000000002</v>
       </c>
       <c r="AW24" s="1">
-        <v>-124.917000</v>
+        <v>-124.917</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>60418.518794</v>
+        <v>60418.518794000003</v>
       </c>
       <c r="AZ24" s="1">
-        <v>16.782922</v>
+        <v>16.782921999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1006.000000</v>
+        <v>1006</v>
       </c>
       <c r="BB24" s="1">
-        <v>-143.739000</v>
+        <v>-143.739</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>60429.565723</v>
       </c>
       <c r="BE24" s="1">
-        <v>16.785990</v>
+        <v>16.785990000000002</v>
       </c>
       <c r="BF24" s="1">
-        <v>1052.080000</v>
+        <v>1052.08</v>
       </c>
       <c r="BG24" s="1">
-        <v>-228.748000</v>
+        <v>-228.74799999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>60440.568478</v>
+        <v>60440.568478000001</v>
       </c>
       <c r="BJ24" s="1">
         <v>16.789047</v>
       </c>
       <c r="BK24" s="1">
-        <v>1132.530000</v>
+        <v>1132.53</v>
       </c>
       <c r="BL24" s="1">
-        <v>-364.376000</v>
+        <v>-364.37599999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>60451.910959</v>
+        <v>60451.910959000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>16.792197</v>
+        <v>16.792197000000002</v>
       </c>
       <c r="BP24" s="1">
-        <v>1265.010000</v>
+        <v>1265.01</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-573.120000</v>
+        <v>-573.12</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>60462.982159</v>
+        <v>60462.982158999999</v>
       </c>
       <c r="BT24" s="1">
-        <v>16.795273</v>
+        <v>16.795273000000002</v>
       </c>
       <c r="BU24" s="1">
-        <v>1413.500000</v>
+        <v>1413.5</v>
       </c>
       <c r="BV24" s="1">
-        <v>-795.675000</v>
+        <v>-795.67499999999995</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>60473.507761</v>
+        <v>60473.507761000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>16.798197</v>
+        <v>16.798196999999998</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1575.160000</v>
+        <v>1575.16</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1027.170000</v>
+        <v>-1027.17</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>60486.699856</v>
+        <v>60486.699855999999</v>
       </c>
       <c r="CD24" s="1">
-        <v>16.801861</v>
+        <v>16.801860999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>1983.550000</v>
+        <v>1983.55</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1567.730000</v>
+        <v>-1567.73</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>60312.267304</v>
+        <v>60312.267304000001</v>
       </c>
       <c r="B25" s="1">
         <v>16.753408</v>
       </c>
       <c r="C25" s="1">
-        <v>904.792000</v>
+        <v>904.79200000000003</v>
       </c>
       <c r="D25" s="1">
-        <v>-193.122000</v>
+        <v>-193.12200000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>60322.503241</v>
+        <v>60322.503240999999</v>
       </c>
       <c r="G25" s="1">
-        <v>16.756251</v>
+        <v>16.756250999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>921.006000</v>
+        <v>921.00599999999997</v>
       </c>
       <c r="I25" s="1">
-        <v>-163.688000</v>
+        <v>-163.68799999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>60332.968859</v>
+        <v>60332.968859000001</v>
       </c>
       <c r="L25" s="1">
-        <v>16.759158</v>
+        <v>16.759157999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>942.040000</v>
+        <v>942.04</v>
       </c>
       <c r="N25" s="1">
-        <v>-117.382000</v>
+        <v>-117.38200000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>60343.544557</v>
+        <v>60343.544557000001</v>
       </c>
       <c r="Q25" s="1">
         <v>16.762096</v>
       </c>
       <c r="R25" s="1">
-        <v>948.524000</v>
+        <v>948.524</v>
       </c>
       <c r="S25" s="1">
-        <v>-102.564000</v>
+        <v>-102.56399999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>60354.308735</v>
+        <v>60354.308734999999</v>
       </c>
       <c r="V25" s="1">
         <v>16.765086</v>
       </c>
       <c r="W25" s="1">
-        <v>954.901000</v>
+        <v>954.90099999999995</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.372000</v>
+        <v>-89.372</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>60364.844225</v>
+        <v>60364.844225000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>16.768012</v>
+        <v>16.768011999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>962.229000</v>
+        <v>962.22900000000004</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.292300</v>
+        <v>-80.292299999999997</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>60375.296925</v>
+        <v>60375.296925000002</v>
       </c>
       <c r="AF25" s="1">
         <v>16.770916</v>
       </c>
       <c r="AG25" s="1">
-        <v>967.205000</v>
+        <v>967.20500000000004</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.058900</v>
+        <v>-80.058899999999994</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>60386.211413</v>
+        <v>60386.211412999997</v>
       </c>
       <c r="AK25" s="1">
-        <v>16.773948</v>
+        <v>16.773948000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>975.280000</v>
+        <v>975.28</v>
       </c>
       <c r="AM25" s="1">
-        <v>-88.067800</v>
+        <v>-88.067800000000005</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>60397.169494</v>
+        <v>60397.169494000002</v>
       </c>
       <c r="AP25" s="1">
         <v>16.776992</v>
       </c>
       <c r="AQ25" s="1">
-        <v>984.618000</v>
+        <v>984.61800000000005</v>
       </c>
       <c r="AR25" s="1">
-        <v>-103.192000</v>
+        <v>-103.19199999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>60408.337911</v>
+        <v>60408.337911000002</v>
       </c>
       <c r="AU25" s="1">
-        <v>16.780094</v>
+        <v>16.780093999999998</v>
       </c>
       <c r="AV25" s="1">
-        <v>996.224000</v>
+        <v>996.22400000000005</v>
       </c>
       <c r="AW25" s="1">
-        <v>-124.908000</v>
+        <v>-124.908</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>60418.875418</v>
+        <v>60418.875418000003</v>
       </c>
       <c r="AZ25" s="1">
-        <v>16.783021</v>
+        <v>16.783021000000002</v>
       </c>
       <c r="BA25" s="1">
-        <v>1006.000000</v>
+        <v>1006</v>
       </c>
       <c r="BB25" s="1">
-        <v>-143.773000</v>
+        <v>-143.773</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>60429.926811</v>
+        <v>60429.926810999998</v>
       </c>
       <c r="BE25" s="1">
-        <v>16.786091</v>
+        <v>16.786090999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1052.070000</v>
+        <v>1052.07</v>
       </c>
       <c r="BG25" s="1">
-        <v>-228.754000</v>
+        <v>-228.75399999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>60441.265857</v>
+        <v>60441.265856999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>16.789241</v>
+        <v>16.789241000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1132.540000</v>
+        <v>1132.54</v>
       </c>
       <c r="BL25" s="1">
-        <v>-364.332000</v>
+        <v>-364.33199999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>60452.418861</v>
+        <v>60452.418860999998</v>
       </c>
       <c r="BO25" s="1">
-        <v>16.792339</v>
+        <v>16.792338999999998</v>
       </c>
       <c r="BP25" s="1">
-        <v>1264.950000</v>
+        <v>1264.95</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-573.172000</v>
+        <v>-573.17200000000003</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>60463.099216</v>
+        <v>60463.099216000002</v>
       </c>
       <c r="BT25" s="1">
-        <v>16.795305</v>
+        <v>16.795304999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1413.460000</v>
+        <v>1413.46</v>
       </c>
       <c r="BV25" s="1">
-        <v>-795.678000</v>
+        <v>-795.678</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>60473.944736</v>
+        <v>60473.944735999998</v>
       </c>
       <c r="BY25" s="1">
-        <v>16.798318</v>
+        <v>16.798317999999998</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1575.130000</v>
+        <v>1575.13</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1027.230000</v>
+        <v>-1027.23</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>60487.247441</v>
       </c>
       <c r="CD25" s="1">
-        <v>16.802013</v>
+        <v>16.802012999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1982.950000</v>
+        <v>1982.95</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1568.670000</v>
+        <v>-1568.67</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>60312.687911</v>
+        <v>60312.687911000001</v>
       </c>
       <c r="B26" s="1">
-        <v>16.753524</v>
+        <v>16.753523999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>904.554000</v>
+        <v>904.55399999999997</v>
       </c>
       <c r="D26" s="1">
-        <v>-193.078000</v>
+        <v>-193.078</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>60322.779048</v>
+        <v>60322.779047999997</v>
       </c>
       <c r="G26" s="1">
         <v>16.756328</v>
       </c>
       <c r="H26" s="1">
-        <v>921.354000</v>
+        <v>921.35400000000004</v>
       </c>
       <c r="I26" s="1">
-        <v>-163.213000</v>
+        <v>-163.21299999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>60333.312092</v>
       </c>
       <c r="L26" s="1">
-        <v>16.759253</v>
+        <v>16.759253000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>942.148000</v>
+        <v>942.14800000000002</v>
       </c>
       <c r="N26" s="1">
-        <v>-117.275000</v>
+        <v>-117.27500000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>60343.894733</v>
+        <v>60343.894733000001</v>
       </c>
       <c r="Q26" s="1">
         <v>16.762193</v>
       </c>
       <c r="R26" s="1">
-        <v>948.521000</v>
+        <v>948.52099999999996</v>
       </c>
       <c r="S26" s="1">
-        <v>-102.566000</v>
+        <v>-102.566</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>60354.654415</v>
+        <v>60354.654414999997</v>
       </c>
       <c r="V26" s="1">
-        <v>16.765182</v>
+        <v>16.765181999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>954.867000</v>
+        <v>954.86699999999996</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.321200</v>
+        <v>-89.321200000000005</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>60365.514845</v>
+        <v>60365.514844999998</v>
       </c>
       <c r="AA26" s="1">
-        <v>16.768199</v>
+        <v>16.768198999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>962.173000</v>
+        <v>962.173</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.281100</v>
+        <v>-80.281099999999995</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>60375.982419</v>
@@ -6739,165 +7155,166 @@
         <v>16.771106</v>
       </c>
       <c r="AG26" s="1">
-        <v>967.108000</v>
+        <v>967.10799999999995</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.990900</v>
+        <v>-79.990899999999996</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>60386.556100</v>
+        <v>60386.556100000002</v>
       </c>
       <c r="AK26" s="1">
-        <v>16.774043</v>
+        <v>16.774042999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>975.275000</v>
+        <v>975.27499999999998</v>
       </c>
       <c r="AM26" s="1">
-        <v>-88.074100</v>
+        <v>-88.074100000000001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>60397.532234</v>
+        <v>60397.532233999998</v>
       </c>
       <c r="AP26" s="1">
         <v>16.777092</v>
       </c>
       <c r="AQ26" s="1">
-        <v>984.596000</v>
+        <v>984.596</v>
       </c>
       <c r="AR26" s="1">
-        <v>-103.195000</v>
+        <v>-103.19499999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>60408.706439</v>
+        <v>60408.706439000001</v>
       </c>
       <c r="AU26" s="1">
         <v>16.780196</v>
       </c>
       <c r="AV26" s="1">
-        <v>996.212000</v>
+        <v>996.21199999999999</v>
       </c>
       <c r="AW26" s="1">
-        <v>-124.903000</v>
+        <v>-124.90300000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>60419.547499</v>
       </c>
       <c r="AZ26" s="1">
-        <v>16.783208</v>
+        <v>16.783207999999998</v>
       </c>
       <c r="BA26" s="1">
-        <v>1006.010000</v>
+        <v>1006.01</v>
       </c>
       <c r="BB26" s="1">
-        <v>-143.739000</v>
+        <v>-143.739</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>60430.600842</v>
       </c>
       <c r="BE26" s="1">
-        <v>16.786278</v>
+        <v>16.786277999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1052.080000</v>
+        <v>1052.08</v>
       </c>
       <c r="BG26" s="1">
-        <v>-228.735000</v>
+        <v>-228.73500000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>60441.694403</v>
+        <v>60441.694403000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>16.789360</v>
+        <v>16.789359999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1132.550000</v>
+        <v>1132.55</v>
       </c>
       <c r="BL26" s="1">
-        <v>-364.389000</v>
+        <v>-364.38900000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>60452.836493</v>
+        <v>60452.836493000003</v>
       </c>
       <c r="BO26" s="1">
         <v>16.792455</v>
       </c>
       <c r="BP26" s="1">
-        <v>1265.010000</v>
+        <v>1265.01</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-573.185000</v>
+        <v>-573.18499999999995</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>60463.543134</v>
       </c>
       <c r="BT26" s="1">
-        <v>16.795429</v>
+        <v>16.795428999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1413.580000</v>
+        <v>1413.58</v>
       </c>
       <c r="BV26" s="1">
-        <v>-795.688000</v>
+        <v>-795.68799999999999</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>60474.402088</v>
+        <v>60474.402088000003</v>
       </c>
       <c r="BY26" s="1">
-        <v>16.798445</v>
+        <v>16.798445000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1575.110000</v>
+        <v>1575.11</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1027.390000</v>
+        <v>-1027.3900000000001</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>60487.779679</v>
+        <v>60487.779678999999</v>
       </c>
       <c r="CD26" s="1">
-        <v>16.802161</v>
+        <v>16.802161000000002</v>
       </c>
       <c r="CE26" s="1">
-        <v>1983.840000</v>
+        <v>1983.84</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1567.280000</v>
+        <v>-1567.28</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>